--- a/sriramModel-nelson-atypical-patientID_15-sims-acth-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_15-sims-acth-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.49111102370684</v>
+        <v>14.48507811159338</v>
       </c>
       <c r="C2">
-        <v>14.41754942997098</v>
+        <v>14.34529977614047</v>
       </c>
       <c r="D2">
-        <v>14.32537957991092</v>
+        <v>14.34795825078756</v>
       </c>
       <c r="E2">
-        <v>14.33767435315539</v>
+        <v>14.48723489040518</v>
       </c>
       <c r="F2">
-        <v>14.53504339454929</v>
+        <v>14.34167558451699</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.68693381569729</v>
+        <v>14.69501096299585</v>
       </c>
       <c r="C3">
-        <v>14.53742854184237</v>
+        <v>14.39109504089741</v>
       </c>
       <c r="D3">
-        <v>14.35542458124371</v>
+        <v>14.39583718383324</v>
       </c>
       <c r="E3">
-        <v>14.37901621545853</v>
+        <v>14.65531470376452</v>
       </c>
       <c r="F3">
-        <v>14.8002985252197</v>
+        <v>14.38621502273937</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.8694373093827</v>
+        <v>14.92289029169459</v>
       </c>
       <c r="C4">
-        <v>14.6586400307879</v>
+        <v>14.43719507573628</v>
       </c>
       <c r="D4">
-        <v>14.3901003936155</v>
+        <v>14.44352760411095</v>
       </c>
       <c r="E4">
-        <v>14.42397587946206</v>
+        <v>14.80183642544061</v>
       </c>
       <c r="F4">
-        <v>15.07195094587214</v>
+        <v>14.43359090661032</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.02842605514165</v>
+        <v>15.15343304359094</v>
       </c>
       <c r="C5">
-        <v>14.78028719666528</v>
+        <v>14.48342521997971</v>
       </c>
       <c r="D5">
-        <v>14.42937117216918</v>
+        <v>14.49092897928627</v>
       </c>
       <c r="E5">
-        <v>14.47250420872592</v>
+        <v>14.92735920230035</v>
       </c>
       <c r="F5">
-        <v>15.31781163267842</v>
+        <v>14.48377606583989</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.16117815046582</v>
+        <v>15.36273923531744</v>
       </c>
       <c r="C6">
-        <v>14.90157187228725</v>
+        <v>14.5296241006901</v>
       </c>
       <c r="D6">
-        <v>14.47319915419988</v>
+        <v>14.53794837780316</v>
       </c>
       <c r="E6">
-        <v>14.52455205548791</v>
+        <v>15.03394292647562</v>
       </c>
       <c r="F6">
-        <v>15.51190963948023</v>
+        <v>14.53674354038538</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.26956779564664</v>
+        <v>15.5285297709163</v>
       </c>
       <c r="C7">
-        <v>15.02179205127029</v>
+        <v>14.57564429876679</v>
       </c>
       <c r="D7">
-        <v>14.52154369475724</v>
+        <v>14.58450031647936</v>
       </c>
       <c r="E7">
-        <v>14.58006955937975</v>
+        <v>15.12415725568603</v>
       </c>
       <c r="F7">
-        <v>15.64757153077599</v>
+        <v>14.59246647126123</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.35722522052889</v>
+        <v>15.64362716362193</v>
       </c>
       <c r="C8">
-        <v>15.1403377359642</v>
+        <v>14.62135175014682</v>
       </c>
       <c r="D8">
-        <v>14.57436015251192</v>
+        <v>14.63050620196297</v>
       </c>
       <c r="E8">
-        <v>14.63900535978578</v>
+        <v>15.20054194526467</v>
       </c>
       <c r="F8">
-        <v>15.7344108859633</v>
+        <v>14.65091793149711</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.42796484370303</v>
+        <v>15.71603845870063</v>
       </c>
       <c r="C9">
-        <v>15.25668565956339</v>
+        <v>14.66662440148671</v>
       </c>
       <c r="D9">
-        <v>14.63159854688462</v>
+        <v>14.67589395462176</v>
       </c>
       <c r="E9">
-        <v>14.70130574873836</v>
+        <v>15.26536982136411</v>
       </c>
       <c r="F9">
-        <v>15.78695627780207</v>
+        <v>14.71207078122737</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.48515354695023</v>
+        <v>15.75881009633474</v>
       </c>
       <c r="C10">
-        <v>15.37039244776243</v>
+        <v>14.71135162658963</v>
       </c>
       <c r="D10">
-        <v>14.69320188550139</v>
+        <v>14.72059766885506</v>
       </c>
       <c r="E10">
-        <v>14.76691395282978</v>
+        <v>15.32057587692363</v>
       </c>
       <c r="F10">
-        <v>15.81746763641299</v>
+        <v>14.77589745685559</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.53155076082735</v>
+        <v>15.78290918045225</v>
       </c>
       <c r="C11">
-        <v>15.48108798137464</v>
+        <v>14.75543377716569</v>
       </c>
       <c r="D11">
-        <v>14.75910437839594</v>
+        <v>14.76455729573894</v>
       </c>
       <c r="E11">
-        <v>14.83576889561838</v>
+        <v>15.36776470851835</v>
       </c>
       <c r="F11">
-        <v>15.83433121487554</v>
+        <v>14.84236965330305</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.56934382438527</v>
+        <v>15.79566743283618</v>
       </c>
       <c r="C12">
-        <v>15.58846866044938</v>
+        <v>14.79878160395534</v>
       </c>
       <c r="D12">
-        <v>14.82922935651993</v>
+        <v>14.80771836929982</v>
       </c>
       <c r="E12">
-        <v>14.90780387040807</v>
+        <v>15.40825026668701</v>
       </c>
       <c r="F12">
-        <v>15.84280085964627</v>
+        <v>14.91145795229299</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.60024185785215</v>
+        <v>15.80155877471279</v>
       </c>
       <c r="C13">
-        <v>15.69229048607738</v>
+        <v>14.84131562256965</v>
       </c>
       <c r="D13">
-        <v>14.90348699823366</v>
+        <v>14.85003169740024</v>
       </c>
       <c r="E13">
-        <v>14.98294555711685</v>
+        <v>15.44310281162301</v>
       </c>
       <c r="F13">
-        <v>15.84606575211326</v>
+        <v>14.98313136932247</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.62557536120912</v>
+        <v>15.80323640307051</v>
       </c>
       <c r="C14">
-        <v>15.79236241997463</v>
+        <v>14.88296547548259</v>
       </c>
       <c r="D14">
-        <v>14.98177187302663</v>
+        <v>14.89145296995222</v>
       </c>
       <c r="E14">
-        <v>15.06111264678867</v>
+        <v>15.4731933616822</v>
       </c>
       <c r="F14">
-        <v>15.84605304311972</v>
+        <v>15.05735678301831</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.64638203129156</v>
+        <v>15.80227435231004</v>
       </c>
       <c r="C15">
-        <v>15.88854009423484</v>
+        <v>14.92366938089635</v>
       </c>
       <c r="D15">
-        <v>15.06396018784598</v>
+        <v>14.93194271193457</v>
       </c>
       <c r="E15">
-        <v>15.14221416515819</v>
+        <v>15.49923260115101</v>
       </c>
       <c r="F15">
-        <v>15.84393776894732</v>
+        <v>15.13409821606805</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.66347529575188</v>
+        <v>15.79961983055514</v>
       </c>
       <c r="C16">
-        <v>15.98071998669237</v>
+        <v>14.96337363662555</v>
       </c>
       <c r="D16">
-        <v>15.14990690278126</v>
+        <v>14.97146567099294</v>
       </c>
       <c r="E16">
-        <v>15.22614779902656</v>
+        <v>15.52180282380633</v>
       </c>
       <c r="F16">
-        <v>15.84044735888779</v>
+        <v>15.21331598229779</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.67749708728231</v>
+        <v>15.79585441641779</v>
       </c>
       <c r="C17">
-        <v>16.06883413502626</v>
+        <v>15.00203212008465</v>
       </c>
       <c r="D17">
-        <v>15.23944279828351</v>
+        <v>15.00999118162895</v>
       </c>
       <c r="E17">
-        <v>15.31279806715374</v>
+        <v>15.5413838224647</v>
       </c>
       <c r="F17">
-        <v>15.83604026817971</v>
+        <v>15.29496560859016</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.68895781788036</v>
+        <v>15.79134317470912</v>
       </c>
       <c r="C18">
-        <v>16.15284530896838</v>
+        <v>15.03960576883631</v>
       </c>
       <c r="D18">
-        <v>15.33237152757396</v>
+        <v>15.04749221260129</v>
       </c>
       <c r="E18">
-        <v>15.40203423933339</v>
+        <v>15.55837346192305</v>
       </c>
       <c r="F18">
-        <v>15.83101085155818</v>
+        <v>15.37899613476495</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.69826659224035</v>
+        <v>15.78632039259553</v>
       </c>
       <c r="C19">
-        <v>16.23274264880888</v>
+        <v>15.07606210776625</v>
       </c>
       <c r="D19">
-        <v>15.428466721247</v>
+        <v>15.08394562128786</v>
       </c>
       <c r="E19">
-        <v>15.4937080573855</v>
+        <v>15.57310395586281</v>
       </c>
       <c r="F19">
-        <v>15.82555161238171</v>
+        <v>15.46534864873052</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.70575394262273</v>
+        <v>15.78093987843655</v>
       </c>
       <c r="C20">
-        <v>16.30853777222669</v>
+        <v>15.11137475263942</v>
       </c>
       <c r="D20">
-        <v>15.52746923968177</v>
+        <v>15.11933165868697</v>
       </c>
       <c r="E20">
-        <v>15.58765125202413</v>
+        <v>15.58585468379765</v>
       </c>
       <c r="F20">
-        <v>15.81979065343275</v>
+        <v>15.55395423920088</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.71168889898694</v>
+        <v>15.77530453781217</v>
       </c>
       <c r="C21">
-        <v>16.38026133245832</v>
+        <v>15.14552300449975</v>
       </c>
       <c r="D21">
-        <v>15.62908463824626</v>
+        <v>15.15363395219418</v>
       </c>
       <c r="E21">
-        <v>15.68367283828561</v>
+        <v>15.59686226574701</v>
       </c>
       <c r="F21">
-        <v>15.8138147544703</v>
+        <v>15.64473132881907</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.71629216463248</v>
+        <v>15.76948460689987</v>
       </c>
       <c r="C22">
-        <v>16.44795999522733</v>
+        <v>15.17849135880361</v>
       </c>
       <c r="D22">
-        <v>15.73298104074283</v>
+        <v>15.18683918568231</v>
       </c>
       <c r="E22">
-        <v>15.78155618886599</v>
+        <v>15.60632848522464</v>
       </c>
       <c r="F22">
-        <v>15.80768365989211</v>
+        <v>15.73758241213649</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.71974608170716</v>
+        <v>15.76352889556021</v>
       </c>
       <c r="C23">
-        <v>16.51169379530417</v>
+        <v>15.21026918652109</v>
       </c>
       <c r="D23">
-        <v>15.83878752272012</v>
+        <v>15.21893709837961</v>
       </c>
       <c r="E23">
-        <v>15.88105591226957</v>
+        <v>15.61442651905689</v>
       </c>
       <c r="F23">
-        <v>15.80143899016497</v>
+        <v>15.83239038516145</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.72220233662585</v>
+        <v>15.75747187107754</v>
       </c>
       <c r="C24">
-        <v>16.57153383894465</v>
+        <v>15.24085026855183</v>
       </c>
       <c r="D24">
-        <v>15.94609313546441</v>
+        <v>15.24992018818815</v>
       </c>
       <c r="E24">
-        <v>15.98189460841669</v>
+        <v>15.62130586071087</v>
       </c>
       <c r="F24">
-        <v>15.79511025551361</v>
+        <v>15.92901394587139</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.72378794483685</v>
+        <v>15.75133834751765</v>
       </c>
       <c r="C25">
-        <v>16.62756028310748</v>
+        <v>15.27023248062218</v>
       </c>
       <c r="D25">
-        <v>16.05444670195939</v>
+        <v>15.27978361446309</v>
       </c>
       <c r="E25">
-        <v>16.08375958446928</v>
+        <v>15.62709628839553</v>
       </c>
       <c r="F25">
-        <v>15.7887186190699</v>
+        <v>16.02728201431238</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>15.72460991360273</v>
+        <v>15.74514639099601</v>
       </c>
       <c r="C26">
-        <v>16.67986062392721</v>
+        <v>15.29841744453727</v>
       </c>
       <c r="D26">
-        <v>16.16335752319643</v>
+        <v>15.30852499250516</v>
       </c>
       <c r="E26">
-        <v>16.18629969039882</v>
+        <v>15.63191094947923</v>
       </c>
       <c r="F26">
-        <v>15.78227942366042</v>
+        <v>16.12698761479146</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>15.72475891295858</v>
+        <v>15.73890928582784</v>
       </c>
       <c r="C27">
-        <v>16.72852820881688</v>
+        <v>15.32541013705744</v>
       </c>
       <c r="D27">
-        <v>16.27229713388633</v>
+        <v>15.33614425909053</v>
       </c>
       <c r="E27">
-        <v>16.28912251034212</v>
+        <v>15.63584884705253</v>
       </c>
       <c r="F27">
-        <v>15.77580398764679</v>
+        <v>16.22788064491438</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>15.72431224076727</v>
+        <v>15.7326369829445</v>
       </c>
       <c r="C28">
-        <v>16.77366095521286</v>
+        <v>15.35121864838726</v>
       </c>
       <c r="D28">
-        <v>16.38070227351743</v>
+        <v>15.36264351325145</v>
       </c>
       <c r="E28">
-        <v>16.39179221787977</v>
+        <v>15.6389969572639</v>
       </c>
       <c r="F28">
-        <v>15.76930074829218</v>
+        <v>16.32965963082325</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>15.72333612213818</v>
+        <v>15.7263370220126</v>
       </c>
       <c r="C29">
-        <v>16.81536025726922</v>
+        <v>15.37585383114704</v>
       </c>
       <c r="D29">
-        <v>16.48797895397136</v>
+        <v>15.38802689929193</v>
       </c>
       <c r="E29">
-        <v>16.4938285642794</v>
+        <v>15.64143191353349</v>
       </c>
       <c r="F29">
-        <v>15.76277600690519</v>
+        <v>16.43196344297994</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>15.72188755322371</v>
+        <v>15.72001515539996</v>
       </c>
       <c r="C30">
-        <v>16.85373005397061</v>
+        <v>15.39932902486113</v>
       </c>
       <c r="D30">
-        <v>16.59350803369625</v>
+        <v>15.4123004573352</v>
       </c>
       <c r="E30">
-        <v>16.59470745633438</v>
+        <v>15.64322141334161</v>
       </c>
       <c r="F30">
-        <v>15.75623451843346</v>
+        <v>16.53436268547034</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>15.72001581663996</v>
+        <v>15.71367582044385</v>
       </c>
       <c r="C31">
-        <v>16.88887602921886</v>
+        <v>15.42165983041463</v>
       </c>
       <c r="D31">
-        <v>16.69665293084465</v>
+        <v>15.43547204559478</v>
       </c>
       <c r="E31">
-        <v>16.69386377080248</v>
+        <v>15.64442540220221</v>
       </c>
       <c r="F31">
-        <v>15.74967992881682</v>
+        <v>16.63635157194991</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>15.71776373809106</v>
+        <v>15.70732248928646</v>
       </c>
       <c r="C32">
-        <v>16.92090493148497</v>
+        <v>15.44286379252154</v>
       </c>
       <c r="D32">
-        <v>16.79676822305755</v>
+        <v>15.45755117493265</v>
       </c>
       <c r="E32">
-        <v>16.79069714010218</v>
+        <v>15.6450970848531</v>
       </c>
       <c r="F32">
-        <v>15.7431150632632</v>
+        <v>16.73734220711381</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>15.71516868907778</v>
+        <v>15.70095791467124</v>
       </c>
       <c r="C33">
-        <v>16.94992399414571</v>
+        <v>15.46296023395294</v>
       </c>
       <c r="D33">
-        <v>16.89320977674218</v>
+        <v>15.47854893956441</v>
       </c>
       <c r="E33">
-        <v>16.88458106486623</v>
+        <v>15.64528378336688</v>
       </c>
       <c r="F33">
-        <v>15.73654211300388</v>
+        <v>16.83666197838584</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>15.71226339777468</v>
+        <v>15.69458428533131</v>
       </c>
       <c r="C34">
-        <v>16.97604044262586</v>
+        <v>15.48197000720713</v>
       </c>
       <c r="D34">
-        <v>16.98534695135292</v>
+        <v>15.49847788219458</v>
       </c>
       <c r="E34">
-        <v>16.9748759145252</v>
+        <v>15.64502766796547</v>
       </c>
       <c r="F34">
-        <v>15.72996278839511</v>
+        <v>16.93355628169185</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>15.70907663828257</v>
+        <v>15.68820334023624</v>
       </c>
       <c r="C35">
-        <v>16.99936106731301</v>
+        <v>15.49991526682098</v>
       </c>
       <c r="D35">
-        <v>17.07257649143736</v>
+        <v>15.51735189436188</v>
       </c>
       <c r="E35">
-        <v>17.06094586201185</v>
+        <v>15.6443663967817</v>
       </c>
       <c r="F35">
-        <v>15.72337843704278</v>
+        <v>17.02719836520993</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>15.7056338063334</v>
+        <v>15.68181647158979</v>
       </c>
       <c r="C36">
-        <v>17.01999186540808</v>
+        <v>15.51681933472355</v>
       </c>
       <c r="D36">
-        <v>17.1543375388526</v>
+        <v>15.53518612736703</v>
       </c>
       <c r="E36">
-        <v>17.14217896914779</v>
+        <v>15.64333366068798</v>
       </c>
       <c r="F36">
-        <v>15.71679014691101</v>
+        <v>17.11671052068658</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>15.70195738801362</v>
+        <v>15.67542481218111</v>
       </c>
       <c r="C37">
-        <v>17.03803772917993</v>
+        <v>15.53270646234106</v>
       </c>
       <c r="D37">
-        <v>17.23012744982287</v>
+        <v>15.55199687763607</v>
       </c>
       <c r="E37">
-        <v>17.21800965350405</v>
+        <v>15.64195965522708</v>
       </c>
       <c r="F37">
-        <v>15.71019878831506</v>
+        <v>17.20119298287328</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>15.69806734927602</v>
+        <v>15.66902929630452</v>
       </c>
       <c r="C38">
-        <v>17.053602175466</v>
+        <v>15.54760170541548</v>
       </c>
       <c r="D38">
-        <v>17.29951777452353</v>
+        <v>15.56780151787028</v>
       </c>
       <c r="E38">
-        <v>17.28794156733457</v>
+        <v>15.64027150024151</v>
       </c>
       <c r="F38">
-        <v>15.70360505927664</v>
+        <v>17.27976433845726</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>15.6939814843707</v>
+        <v>15.66263069569774</v>
       </c>
       <c r="C39">
-        <v>17.06678711246726</v>
+        <v>15.56153077122725</v>
       </c>
       <c r="D39">
-        <v>17.36216941369569</v>
+        <v>15.58261839549976</v>
       </c>
       <c r="E39">
-        <v>17.35156877865021</v>
+        <v>15.63829360851964</v>
       </c>
       <c r="F39">
-        <v>15.69700952291543</v>
+        <v>17.35160931301444</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>15.68971570906769</v>
+        <v>15.65622964709527</v>
       </c>
       <c r="C40">
-        <v>17.07769263650465</v>
+        <v>15.57451983595321</v>
       </c>
       <c r="D40">
-        <v>17.41784551340493</v>
+        <v>15.59646675053242</v>
       </c>
       <c r="E40">
-        <v>17.40859301523032</v>
+        <v>15.63604799862968</v>
       </c>
       <c r="F40">
-        <v>15.6904126349461</v>
+        <v>17.4160292474207</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>15.68528429051458</v>
+        <v>15.64982667786555</v>
       </c>
       <c r="C41">
-        <v>17.0864168541734</v>
+        <v>15.58659547506191</v>
       </c>
       <c r="D41">
-        <v>17.46642070244183</v>
+        <v>15.60936664194861</v>
       </c>
       <c r="E41">
-        <v>17.4588347287725</v>
+        <v>15.63355454706914</v>
       </c>
       <c r="F41">
-        <v>15.68381476365428</v>
+        <v>17.47248889769615</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>15.68070004553612</v>
+        <v>15.6434222310984</v>
       </c>
       <c r="C42">
-        <v>17.09305572635335</v>
+        <v>15.59778449711601</v>
       </c>
       <c r="D42">
-        <v>17.50788529040014</v>
+        <v>15.62133885391491</v>
       </c>
       <c r="E42">
-        <v>17.50223728428495</v>
+        <v>15.63083123409009</v>
       </c>
       <c r="F42">
-        <v>15.67721621527875</v>
+        <v>17.52065234538722</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>15.67597451689867</v>
+        <v>15.63701667532259</v>
       </c>
       <c r="C43">
-        <v>17.09770293137018</v>
+        <v>15.60811385255128</v>
       </c>
       <c r="D43">
-        <v>17.54234365254035</v>
+        <v>15.63240483262029</v>
       </c>
       <c r="E43">
-        <v>17.53886318467122</v>
+        <v>15.62789436018607</v>
       </c>
       <c r="F43">
-        <v>15.67061724456738</v>
+        <v>17.56040223388002</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>15.67111812765559</v>
+        <v>15.630610334287</v>
       </c>
       <c r="C44">
-        <v>17.10044974558494</v>
+        <v>15.6176105471604</v>
       </c>
       <c r="D44">
-        <v>17.57000635580016</v>
+        <v>15.64258660364714</v>
       </c>
       <c r="E44">
-        <v>17.56888346111359</v>
+        <v>15.62475873274978</v>
       </c>
       <c r="F44">
-        <v>15.66401806537791</v>
+        <v>17.59183922530051</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>15.66614031480371</v>
+        <v>15.62420347415317</v>
       </c>
       <c r="C45">
-        <v>17.10138493855585</v>
+        <v>15.62630151462705</v>
       </c>
       <c r="D45">
-        <v>17.59117643586461</v>
+        <v>15.65190669980117</v>
       </c>
       <c r="E45">
-        <v>17.59256201986472</v>
+        <v>15.62143782633212</v>
       </c>
       <c r="F45">
-        <v>15.65741886611627</v>
+        <v>17.61526229088181</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>15.66104964676246</v>
+        <v>15.61779633046037</v>
       </c>
       <c r="C46">
-        <v>17.10059468432485</v>
+        <v>15.63421357553373</v>
       </c>
       <c r="D46">
-        <v>17.60623138761606</v>
+        <v>15.66038809846493</v>
       </c>
       <c r="E46">
-        <v>17.61023622074052</v>
+        <v>15.61794392260243</v>
       </c>
       <c r="F46">
-        <v>15.6508197948669</v>
+        <v>17.63113391806781</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>15.65585391586463</v>
+        <v>15.61138910096825</v>
       </c>
       <c r="C47">
-        <v>17.09816248641119</v>
+        <v>15.64137334047127</v>
       </c>
       <c r="D47">
-        <v>17.61560263718646</v>
+        <v>15.66805414191529</v>
       </c>
       <c r="E47">
-        <v>17.62229642077321</v>
+        <v>15.61428823423578</v>
       </c>
       <c r="F47">
-        <v>15.64422098941989</v>
+        <v>17.6400364807836</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>15.65056022141285</v>
+        <v>15.60498195402654</v>
       </c>
       <c r="C48">
-        <v>17.09416911597552</v>
+        <v>15.64780713918351</v>
       </c>
       <c r="D48">
-        <v>17.61975462860673</v>
+        <v>15.67492848315892</v>
       </c>
       <c r="E48">
-        <v>17.62916610168888</v>
+        <v>15.6104810151919</v>
       </c>
       <c r="F48">
-        <v>15.6376225505087</v>
+        <v>17.64262653133963</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>15.64517504494893</v>
+        <v>15.59857503707074</v>
       </c>
       <c r="C49">
-        <v>17.08869256379331</v>
+        <v>15.65354098630521</v>
       </c>
       <c r="D49">
-        <v>17.61916524790377</v>
+        <v>15.68103501402611</v>
       </c>
       <c r="E49">
-        <v>17.63128391034992</v>
+        <v>15.60653166014498</v>
       </c>
       <c r="F49">
-        <v>15.63102457272349</v>
+        <v>17.63959179141112</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>15.6397043161842</v>
+        <v>15.59216847585765</v>
       </c>
       <c r="C50">
-        <v>17.08180800553394</v>
+        <v>15.65860049680485</v>
       </c>
       <c r="D50">
-        <v>17.61430902087794</v>
+        <v>15.68639780370292</v>
       </c>
       <c r="E50">
-        <v>17.62908865148966</v>
+        <v>15.60244879019696</v>
       </c>
       <c r="F50">
-        <v>15.62442712724127</v>
+        <v>17.63161601397638</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>15.63415347081303</v>
+        <v>15.58576238068987</v>
       </c>
       <c r="C51">
-        <v>17.07358778016518</v>
+        <v>15.66301086460788</v>
       </c>
       <c r="D51">
-        <v>17.60564385624459</v>
+        <v>15.69104104242676</v>
       </c>
       <c r="E51">
-        <v>17.62300733774963</v>
+        <v>15.59824032896176</v>
       </c>
       <c r="F51">
-        <v>15.61783027783648</v>
+        <v>17.61935159957902</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>15.62852750101963</v>
+        <v>15.57935684932028</v>
       </c>
       <c r="C52">
-        <v>17.0641013804704</v>
+        <v>15.66679681723806</v>
       </c>
       <c r="D52">
-        <v>17.59360146992139</v>
+        <v>15.69498897412698</v>
       </c>
       <c r="E52">
-        <v>17.61344656632199</v>
+        <v>15.59391357008919</v>
       </c>
       <c r="F52">
-        <v>15.61123407990873</v>
+        <v>17.60340390381117</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>15.62283935837092</v>
+        <v>15.57295196632552</v>
       </c>
       <c r="C53">
-        <v>17.05370429146706</v>
+        <v>15.66998256251033</v>
       </c>
       <c r="D53">
-        <v>17.57884490702937</v>
+        <v>15.69826584763392</v>
       </c>
       <c r="E53">
-        <v>17.60125808927827</v>
+        <v>15.58947523759554</v>
       </c>
       <c r="F53">
-        <v>15.60463858288821</v>
+        <v>17.58431943532828</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>15.61710057755068</v>
+        <v>15.56654780814317</v>
       </c>
       <c r="C54">
-        <v>17.0426923991132</v>
+        <v>15.67259178809553</v>
       </c>
       <c r="D54">
-        <v>17.56187947244396</v>
+        <v>15.70089585587519</v>
       </c>
       <c r="E54">
-        <v>17.58706279945818</v>
+        <v>15.58493153971864</v>
       </c>
       <c r="F54">
-        <v>15.59804382894955</v>
+        <v>17.56258202057124</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>15.61131363940383</v>
+        <v>15.56014444063186</v>
       </c>
       <c r="C55">
-        <v>17.03104900500315</v>
+        <v>15.67464761149179</v>
       </c>
       <c r="D55">
-        <v>17.54288635392565</v>
+        <v>15.70290308222289</v>
       </c>
       <c r="E55">
-        <v>17.57093478147479</v>
+        <v>15.58028821690009</v>
       </c>
       <c r="F55">
-        <v>15.59144985480176</v>
+        <v>17.53861384943228</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>15.60548089063559</v>
+        <v>15.5537419225054</v>
       </c>
       <c r="C56">
-        <v>17.01876411180147</v>
+        <v>15.67617257145301</v>
       </c>
       <c r="D56">
-        <v>17.52205148992538</v>
+        <v>15.70431145392395</v>
       </c>
       <c r="E56">
-        <v>17.55297898058435</v>
+        <v>15.57555058455766</v>
       </c>
       <c r="F56">
-        <v>15.58485669237724</v>
+        <v>17.51277850538985</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>15.59960452049269</v>
+        <v>15.54734030572228</v>
       </c>
       <c r="C57">
-        <v>17.00583332359403</v>
+        <v>15.67718861375437</v>
       </c>
       <c r="D57">
-        <v>17.49955737152296</v>
+        <v>15.70514468342198</v>
       </c>
       <c r="E57">
-        <v>17.53331842542816</v>
+        <v>15.57072357125474</v>
       </c>
       <c r="F57">
-        <v>15.5782643695425</v>
+        <v>17.48538578500905</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>15.59368658395631</v>
+        <v>15.54093963631928</v>
       </c>
       <c r="C58">
-        <v>16.99225695089633</v>
+        <v>15.67771706303874</v>
       </c>
       <c r="D58">
-        <v>17.47557776747547</v>
+        <v>15.7054262298926</v>
       </c>
       <c r="E58">
-        <v>17.51208478366399</v>
+        <v>15.56581174976164</v>
       </c>
       <c r="F58">
-        <v>15.57167291068756</v>
+        <v>17.45669776838724</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>15.58772902083403</v>
+        <v>15.53453995552633</v>
       </c>
       <c r="C59">
-        <v>16.97803923851776</v>
+        <v>15.67777863205853</v>
       </c>
       <c r="D59">
-        <v>17.45027460337364</v>
+        <v>15.70517924799998</v>
       </c>
       <c r="E59">
-        <v>17.48941152109572</v>
+        <v>15.56081937647452</v>
       </c>
       <c r="F59">
-        <v>15.56508233721238</v>
+        <v>17.4269351322383</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>15.58173365556408</v>
+        <v>15.5281413003706</v>
       </c>
       <c r="C60">
-        <v>16.96318770458771</v>
+        <v>15.67739340258166</v>
       </c>
       <c r="D60">
-        <v>17.42379650149711</v>
+        <v>15.70442654449159</v>
       </c>
       <c r="E60">
-        <v>17.46542955106511</v>
+        <v>15.55575040574822</v>
       </c>
       <c r="F60">
-        <v>15.55849266795346</v>
+        <v>17.39628286037235</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>15.57570220502355</v>
+        <v>15.5217437038897</v>
       </c>
       <c r="C61">
-        <v>16.94771263104489</v>
+        <v>15.67658082363562</v>
       </c>
       <c r="D61">
-        <v>17.39627825599814</v>
+        <v>15.70319054385035</v>
       </c>
       <c r="E61">
-        <v>17.440264006688</v>
+        <v>15.55060853722024</v>
       </c>
       <c r="F61">
-        <v>15.55190391954078</v>
+        <v>17.36489535306653</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>15.56963628234804</v>
+        <v>15.51534719622094</v>
       </c>
       <c r="C62">
-        <v>16.9316265694603</v>
+        <v>15.67535971738287</v>
       </c>
       <c r="D62">
-        <v>17.36784109133122</v>
+        <v>15.7014932390848</v>
       </c>
       <c r="E62">
-        <v>17.41403244023736</v>
+        <v>15.54539721227808</v>
       </c>
       <c r="F62">
-        <v>15.54531610666809</v>
+        <v>17.33290112641835</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>15.56353741673611</v>
+        <v>15.50895180410289</v>
       </c>
       <c r="C63">
-        <v>16.91494381972984</v>
+        <v>15.67374826885024</v>
       </c>
       <c r="D63">
-        <v>17.33859334756812</v>
+        <v>15.69935616794396</v>
       </c>
       <c r="E63">
-        <v>17.38684401791742</v>
+        <v>15.54011965374362</v>
       </c>
       <c r="F63">
-        <v>15.53872924235412</v>
+        <v>17.30040704330251</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>15.55740705441177</v>
+        <v>15.5025575518925</v>
       </c>
       <c r="C64">
-        <v>16.89767997232313</v>
+        <v>15.67176403974421</v>
       </c>
       <c r="D64">
-        <v>17.30863135871643</v>
+        <v>15.69680037285188</v>
       </c>
       <c r="E64">
-        <v>17.35879900002731</v>
+        <v>15.53477887293404</v>
       </c>
       <c r="F64">
-        <v>15.53214333817972</v>
+        <v>17.26750193381013</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>15.55124655856446</v>
+        <v>15.49616446147684</v>
       </c>
       <c r="C65">
-        <v>16.87985156974367</v>
+        <v>15.66942397899087</v>
       </c>
       <c r="D65">
-        <v>17.27804049036517</v>
+        <v>15.69384637116491</v>
       </c>
       <c r="E65">
-        <v>17.32998875938209</v>
+        <v>15.52937768580121</v>
       </c>
       <c r="F65">
-        <v>15.52555840447323</v>
+        <v>17.23425960774308</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>15.54505721569357</v>
+        <v>15.48977255270624</v>
       </c>
       <c r="C66">
-        <v>16.8614759476051</v>
+        <v>15.66674440390446</v>
       </c>
       <c r="D66">
-        <v>17.24689621940001</v>
+        <v>15.69051413637328</v>
       </c>
       <c r="E66">
-        <v>17.30049613057827</v>
+        <v>15.52391873721781</v>
       </c>
       <c r="F66">
-        <v>15.51897445047083</v>
+        <v>17.20074137262606</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>15.53884024365692</v>
+        <v>15.48338184365926</v>
       </c>
       <c r="C67">
-        <v>16.84257099637821</v>
+        <v>15.66374102988495</v>
       </c>
       <c r="D67">
-        <v>17.21526515855021</v>
+        <v>15.68682306059931</v>
       </c>
       <c r="E67">
-        <v>17.27039589294943</v>
+        <v>15.51840450397031</v>
       </c>
       <c r="F67">
-        <v>15.51239148453541</v>
+        <v>17.16699817149266</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>15.53259679648382</v>
+        <v>15.47699235076586</v>
       </c>
       <c r="C68">
-        <v>16.82315492103078</v>
+        <v>15.66042899258885</v>
       </c>
       <c r="D68">
-        <v>17.18320603327952</v>
+        <v>15.68279194901111</v>
       </c>
       <c r="E68">
-        <v>17.23975530817129</v>
+        <v>15.51283731675068</v>
       </c>
       <c r="F68">
-        <v>15.50580951398191</v>
+        <v>17.13307238008382</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>15.52632796721225</v>
+        <v>15.47060408903594</v>
       </c>
       <c r="C69">
-        <v>16.80324604810193</v>
+        <v>15.65682278724715</v>
       </c>
       <c r="D69">
-        <v>17.1507705915343</v>
+        <v>15.67843899290298</v>
       </c>
       <c r="E69">
-        <v>17.20863469916905</v>
+        <v>15.50721936629016</v>
       </c>
       <c r="F69">
-        <v>15.49922854566551</v>
+        <v>17.09899928851598</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>15.52003479156171</v>
+        <v>15.46421707220865</v>
       </c>
       <c r="C70">
-        <v>16.78286267749337</v>
+        <v>15.65293641376089</v>
       </c>
       <c r="D70">
-        <v>17.11800442920631</v>
+        <v>15.67378175652814</v>
       </c>
       <c r="E70">
-        <v>17.17708807507737</v>
+        <v>15.50155271494684</v>
       </c>
       <c r="F70">
-        <v>15.4926485852555</v>
+        <v>17.06480831701848</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>15.51371825163161</v>
+        <v>15.4578313127972</v>
       </c>
       <c r="C71">
-        <v>16.76202297117062</v>
+        <v>15.64878323574312</v>
       </c>
       <c r="D71">
-        <v>17.08494773136959</v>
+        <v>15.66883717438808</v>
       </c>
       <c r="E71">
-        <v>17.14516373290948</v>
+        <v>15.49583930856353</v>
       </c>
       <c r="F71">
-        <v>15.48606963842215</v>
+        <v>17.03052402114324</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>15.50737927982951</v>
+        <v>15.45144682229713</v>
       </c>
       <c r="C72">
-        <v>16.74074486386092</v>
+        <v>15.64437609574576</v>
       </c>
       <c r="D72">
-        <v>17.05163593015011</v>
+        <v>15.66362152886265</v>
       </c>
       <c r="E72">
-        <v>17.11290481750563</v>
+        <v>15.4900809788648</v>
       </c>
       <c r="F72">
-        <v>15.47949170974626</v>
+        <v>16.9961669270136</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>15.50101876113218</v>
+        <v>15.44506361119594</v>
       </c>
       <c r="C73">
-        <v>16.71904598889195</v>
+        <v>15.63972732827022</v>
       </c>
       <c r="D73">
-        <v>17.01810028991596</v>
+        <v>15.6581504628273</v>
       </c>
       <c r="E73">
-        <v>17.08034984647419</v>
+        <v>15.48427945883004</v>
       </c>
       <c r="F73">
-        <v>15.47291480389958</v>
+        <v>16.96175422151619</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>15.49463753710019</v>
+        <v>15.4386816892834</v>
       </c>
       <c r="C74">
-        <v>16.6969436142352</v>
+        <v>15.63484870753203</v>
       </c>
       <c r="D74">
-        <v>16.98436842409016</v>
+        <v>15.65243896548859</v>
       </c>
       <c r="E74">
-        <v>17.04753320100921</v>
+        <v>15.47843638283272</v>
       </c>
       <c r="F74">
-        <v>15.46633892473734</v>
+        <v>16.92730031939759</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>15.48823640784611</v>
+        <v>15.43230106528785</v>
       </c>
       <c r="C75">
-        <v>16.67445457536666</v>
+        <v>15.62975153969987</v>
       </c>
       <c r="D75">
-        <v>16.95046474499359</v>
+        <v>15.64650137639302</v>
       </c>
       <c r="E75">
-        <v>17.0144855701642</v>
+        <v>15.47255329850528</v>
       </c>
       <c r="F75">
-        <v>15.45976407608728</v>
+        <v>16.89281732997846</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>15.48181613491924</v>
+        <v>15.42592174764335</v>
       </c>
       <c r="C76">
-        <v>16.65159526861456</v>
+        <v>15.62444662074775</v>
       </c>
       <c r="D76">
-        <v>16.91641085957225</v>
+        <v>15.64035139663263</v>
       </c>
       <c r="E76">
-        <v>16.98123435117976</v>
+        <v>15.46663167039905</v>
       </c>
       <c r="F76">
-        <v>15.45319026122345</v>
+        <v>16.85831544318355</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>15.47537744324516</v>
+        <v>15.4195437439312</v>
       </c>
       <c r="C77">
-        <v>16.62838154957705</v>
+        <v>15.61894427939514</v>
       </c>
       <c r="D77">
-        <v>16.88222591694202</v>
+        <v>15.63400208171284</v>
       </c>
       <c r="E77">
-        <v>16.94780401129284</v>
+        <v>15.46067288251062</v>
       </c>
       <c r="F77">
-        <v>15.44661748329413</v>
+        <v>16.82380324931196</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>15.46892102320721</v>
+        <v>15.41316706110733</v>
       </c>
       <c r="C78">
-        <v>16.60482882276321</v>
+        <v>15.6132543870809</v>
       </c>
       <c r="D78">
-        <v>16.8479269090319</v>
+        <v>15.62746586580913</v>
       </c>
       <c r="E78">
-        <v>16.91421641310309</v>
+        <v>15.45467825289474</v>
       </c>
       <c r="F78">
-        <v>15.44004574506785</v>
+        <v>16.78928800345325</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>15.46244753295565</v>
+        <v>15.40679170591515</v>
       </c>
       <c r="C79">
-        <v>16.58095191486295</v>
+        <v>15.60738636823376</v>
       </c>
       <c r="D79">
-        <v>16.81352893391984</v>
+        <v>15.62075456247995</v>
       </c>
       <c r="E79">
-        <v>16.88049110338909</v>
+        <v>15.44864903175972</v>
       </c>
       <c r="F79">
-        <v>15.43347504916293</v>
+        <v>16.75477584354939</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>15.45595760000362</v>
+        <v>15.40041768417431</v>
       </c>
       <c r="C80">
-        <v>16.55676517836081</v>
+        <v>15.60134922211819</v>
       </c>
       <c r="D80">
-        <v>16.77904542667596</v>
+        <v>15.61387938088354</v>
       </c>
       <c r="E80">
-        <v>16.84664557025864</v>
+        <v>15.44258639832818</v>
       </c>
       <c r="F80">
-        <v>15.42690539792118</v>
+        <v>16.7202719600087</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>15.44945182312335</v>
+        <v>15.39404500165231</v>
       </c>
       <c r="C81">
-        <v>16.53228241611714</v>
+        <v>15.59515153164232</v>
       </c>
       <c r="D81">
-        <v>16.74448835887538</v>
+        <v>15.60685094472586</v>
       </c>
       <c r="E81">
-        <v>16.81269547339811</v>
+        <v>15.43649149146508</v>
       </c>
       <c r="F81">
-        <v>15.42033679354534</v>
+        <v>16.68578077150863</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>15.44293077408595</v>
+        <v>15.38767366352801</v>
       </c>
       <c r="C82">
-        <v>16.50751691917029</v>
+        <v>15.58880148349927</v>
       </c>
       <c r="D82">
-        <v>16.70986841282894</v>
+        <v>15.59967929969216</v>
       </c>
       <c r="E82">
-        <v>16.77865484658522</v>
+        <v>15.4303653775187</v>
       </c>
       <c r="F82">
-        <v>15.41376923803159</v>
+        <v>16.65130604316962</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>15.43639499907055</v>
+        <v>15.38130367460683</v>
       </c>
       <c r="C83">
-        <v>16.48248146198425</v>
+        <v>15.58230688338342</v>
       </c>
       <c r="D83">
-        <v>16.67519513383357</v>
+        <v>15.5923739410088</v>
       </c>
       <c r="E83">
-        <v>16.74453627782225</v>
+        <v>15.42420907955798</v>
       </c>
       <c r="F83">
-        <v>15.40720273324999</v>
+        <v>16.61685097422214</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>15.42984502001077</v>
+        <v>15.37493503943821</v>
       </c>
       <c r="C84">
-        <v>16.45718829793066</v>
+        <v>15.57567516740468</v>
       </c>
       <c r="D84">
-        <v>16.64047706604434</v>
+        <v>15.58494382530335</v>
       </c>
       <c r="E84">
-        <v>16.7103510691585</v>
+        <v>15.418023579839</v>
       </c>
       <c r="F84">
-        <v>15.40063728088145</v>
+        <v>16.5824183231006</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>15.4232813362258</v>
+        <v>15.36856776218771</v>
       </c>
       <c r="C85">
-        <v>16.43164918893675</v>
+        <v>15.56891341934697</v>
       </c>
       <c r="D85">
-        <v>16.6057218779188</v>
+        <v>15.5773973926706</v>
       </c>
       <c r="E85">
-        <v>16.67610937864015</v>
+        <v>15.41180979563219</v>
       </c>
       <c r="F85">
-        <v>15.39407288255693</v>
+        <v>16.54801042785605</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>15.41670207873743</v>
+        <v>15.36220184681319</v>
       </c>
       <c r="C86">
-        <v>16.40585851355915</v>
+        <v>15.56202838653988</v>
       </c>
       <c r="D86">
-        <v>16.57093603684989</v>
+        <v>15.56974258846492</v>
       </c>
       <c r="E86">
-        <v>16.64181933009123</v>
+        <v>15.40556862023412</v>
       </c>
       <c r="F86">
-        <v>15.38750953977509</v>
+        <v>16.51362928607571</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>15.41010548131786</v>
+        <v>15.35583729697115</v>
       </c>
       <c r="C87">
-        <v>16.37981275071239</v>
+        <v>15.55502648999456</v>
       </c>
       <c r="D87">
-        <v>16.53612533268758</v>
+        <v>15.561986880026</v>
       </c>
       <c r="E87">
-        <v>16.6074882972876</v>
+        <v>15.39930089860039</v>
       </c>
       <c r="F87">
-        <v>15.3809472539189</v>
+        <v>16.47927661353324</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>15.4034921812576</v>
+        <v>15.34947411610886</v>
       </c>
       <c r="C88">
-        <v>16.35352538840438</v>
+        <v>15.54791383844013</v>
       </c>
       <c r="D88">
-        <v>16.50129545538917</v>
+        <v>15.55413728205248</v>
       </c>
       <c r="E88">
-        <v>16.57312398826915</v>
+        <v>15.39300743545327</v>
       </c>
       <c r="F88">
-        <v>15.37438602627767</v>
+        <v>16.44495388765499</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>15.396862785739</v>
+        <v>15.34311230748181</v>
       </c>
       <c r="C89">
-        <v>16.32700941544226</v>
+        <v>15.54069624920563</v>
       </c>
       <c r="D89">
-        <v>16.46645156956428</v>
+        <v>15.54620037450407</v>
       </c>
       <c r="E89">
-        <v>16.5387334847914</v>
+        <v>15.38668900636514</v>
       </c>
       <c r="F89">
-        <v>15.36782585805428</v>
+        <v>16.4106623813118</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>15.39021787646493</v>
+        <v>15.33675187407579</v>
       </c>
       <c r="C90">
-        <v>16.30027708980646</v>
+        <v>15.53337924344512</v>
       </c>
       <c r="D90">
-        <v>16.43159833250434</v>
+        <v>15.53818232516866</v>
       </c>
       <c r="E90">
-        <v>16.50432308458436</v>
+        <v>15.38034634720558</v>
       </c>
       <c r="F90">
-        <v>15.3612667503799</v>
+        <v>16.37640319228866</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>15.3835580090622</v>
+        <v>15.33039281878223</v>
       </c>
       <c r="C91">
-        <v>16.27333994766019</v>
+        <v>15.52596808130923</v>
       </c>
       <c r="D91">
-        <v>16.39673994174563</v>
+        <v>15.53008890983917</v>
       </c>
       <c r="E91">
-        <v>16.46989847651758</v>
+        <v>15.37398016741957</v>
       </c>
       <c r="F91">
-        <v>15.35470870431444</v>
+        <v>16.34217727627475</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>15.37688371167472</v>
+        <v>15.32403514424876</v>
       </c>
       <c r="C92">
-        <v>16.24620887692331</v>
+        <v>15.51846775684367</v>
       </c>
       <c r="D92">
-        <v>16.36188017079589</v>
+        <v>15.52192553315545</v>
       </c>
       <c r="E92">
-        <v>16.4354648051363</v>
+        <v>15.3675911456308</v>
       </c>
       <c r="F92">
-        <v>15.34815172085383</v>
+        <v>16.3079854547144</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>15.37019548793328</v>
+        <v>15.31767885299389</v>
       </c>
       <c r="C93">
-        <v>16.21889417063663</v>
+        <v>15.51088301306585</v>
       </c>
       <c r="D93">
-        <v>16.32702243019433</v>
+        <v>15.51369724830939</v>
       </c>
       <c r="E93">
-        <v>16.40102670305807</v>
+        <v>15.3611799299674</v>
       </c>
       <c r="F93">
-        <v>15.34159580092202</v>
+        <v>16.27382843978782</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>15.36349381984046</v>
+        <v>15.31132394739597</v>
       </c>
       <c r="C94">
-        <v>16.19140556650607</v>
+        <v>15.50321836357541</v>
       </c>
       <c r="D94">
-        <v>16.29216983537875</v>
+        <v>15.50540877683713</v>
       </c>
       <c r="E94">
-        <v>16.36658837062051</v>
+        <v>15.35474714724029</v>
       </c>
       <c r="F94">
-        <v>15.33504094540909</v>
+        <v>16.23970685078164</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>15.35677916951367</v>
+        <v>15.30497042966358</v>
       </c>
       <c r="C95">
-        <v>16.16375228014084</v>
+        <v>15.49547808397036</v>
       </c>
       <c r="D95">
-        <v>16.25732513458717</v>
+        <v>15.49706452802599</v>
       </c>
       <c r="E95">
-        <v>16.33215358724745</v>
+        <v>15.34829339479036</v>
       </c>
       <c r="F95">
-        <v>15.32848715515154</v>
+        <v>16.20562122459476</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>15.35005198041002</v>
+        <v>15.29861830191098</v>
       </c>
       <c r="C96">
-        <v>16.13594303565322</v>
+        <v>15.48766624533446</v>
       </c>
       <c r="D96">
-        <v>16.22249091264552</v>
+        <v>15.48866861570636</v>
       </c>
       <c r="E96">
-        <v>16.29772576805768</v>
+        <v>15.34181924827158</v>
       </c>
       <c r="F96">
-        <v>15.32193443093811</v>
+        <v>16.17157202533033</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>15.34331267663086</v>
+        <v>15.29226756611124</v>
       </c>
       <c r="C97">
-        <v>16.10798609465528</v>
+        <v>15.47978670719218</v>
       </c>
       <c r="D97">
-        <v>16.18766946095782</v>
+        <v>15.48022487865045</v>
       </c>
       <c r="E97">
-        <v>16.26330805190087</v>
+        <v>15.33532526283003</v>
       </c>
       <c r="F97">
-        <v>15.31538277351923</v>
+        <v>16.13755967109102</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>15.33656166496119</v>
+        <v>15.28591822414162</v>
       </c>
       <c r="C98">
-        <v>16.07988928371538</v>
+        <v>15.47184313153703</v>
       </c>
       <c r="D98">
-        <v>16.15286290506835</v>
+        <v>15.47173689443555</v>
       </c>
       <c r="E98">
-        <v>16.22890324571519</v>
+        <v>15.32881196758045</v>
       </c>
       <c r="F98">
-        <v>15.30883218359674</v>
+        <v>16.10358450322071</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>15.329799335861</v>
+        <v>15.27957027777601</v>
       </c>
       <c r="C99">
-        <v>16.05166001540304</v>
+        <v>15.46383900154488</v>
       </c>
       <c r="D99">
-        <v>16.11807319597024</v>
+        <v>15.46320799785151</v>
       </c>
       <c r="E99">
-        <v>16.19451393899143</v>
+        <v>15.32227987629119</v>
       </c>
       <c r="F99">
-        <v>15.30228266184114</v>
+        <v>16.06964686068934</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>15.32302606282852</v>
+        <v>15.27322372868433</v>
       </c>
       <c r="C100">
-        <v>16.02330527610896</v>
+        <v>15.45577761067325</v>
       </c>
       <c r="D100">
-        <v>16.08330208781814</v>
+        <v>15.4546412959192</v>
       </c>
       <c r="E100">
-        <v>16.16014249722252</v>
+        <v>15.31572948149323</v>
       </c>
       <c r="F100">
-        <v>15.29573420889942</v>
+        <v>16.03574699933818</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>15.31624220806982</v>
+        <v>15.26687857846766</v>
       </c>
       <c r="C101">
-        <v>15.99483181201967</v>
+        <v>15.44766209571648</v>
       </c>
       <c r="D101">
-        <v>16.04855120601099</v>
+        <v>15.44603968090095</v>
       </c>
       <c r="E101">
-        <v>16.1257910580596</v>
+        <v>15.30916125692919</v>
       </c>
       <c r="F101">
-        <v>15.28918682537299</v>
+        <v>16.00188517922846</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>15.30944811433782</v>
+        <v>15.26053482861956</v>
       </c>
       <c r="C102">
-        <v>15.96624596696171</v>
+        <v>15.43949542617336</v>
       </c>
       <c r="D102">
-        <v>16.01382203711004</v>
+        <v>15.43740584772818</v>
       </c>
       <c r="E102">
-        <v>16.09146158060067</v>
+        <v>15.30257566127136</v>
       </c>
       <c r="F102">
-        <v>15.28264051184994</v>
+        <v>15.96806161410257</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>15.30264411382799</v>
+        <v>15.25419248057841</v>
       </c>
       <c r="C103">
-        <v>15.93755373807159</v>
+        <v>15.43128041746565</v>
       </c>
       <c r="D103">
-        <v>15.97911592959988</v>
+        <v>15.42874230320011</v>
       </c>
       <c r="E103">
-        <v>16.05715586029323</v>
+        <v>15.29597313441858</v>
       </c>
       <c r="F103">
-        <v>15.27609526888427</v>
+        <v>15.93427648646882</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>15.29583052763398</v>
+        <v>15.2478515357024</v>
       </c>
       <c r="C104">
-        <v>15.90876084250049</v>
+        <v>15.4230197470933</v>
       </c>
       <c r="D104">
-        <v>15.94443415316613</v>
+        <v>15.42005138132698</v>
       </c>
       <c r="E104">
-        <v>16.02287553334386</v>
+        <v>15.28935410285957</v>
       </c>
       <c r="F104">
-        <v>15.26955109701686</v>
+        <v>15.90052996975604</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>15.28900765697337</v>
+        <v>15.24151199527402</v>
       </c>
       <c r="C105">
-        <v>15.87987266474862</v>
+        <v>15.41471594322193</v>
       </c>
       <c r="D105">
-        <v>15.90977781937641</v>
+        <v>15.41133525422179</v>
       </c>
       <c r="E105">
-        <v>15.98862210132001</v>
+        <v>15.28271897783434</v>
       </c>
       <c r="F105">
-        <v>15.26300799678529</v>
+        <v>15.86682220292813</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>15.28217580144917</v>
+        <v>15.23517386052634</v>
       </c>
       <c r="C106">
-        <v>15.85089435584975</v>
+        <v>15.40637141410868</v>
       </c>
       <c r="D106">
-        <v>15.87514801769835</v>
+        <v>15.40259594171209</v>
       </c>
       <c r="E106">
-        <v>15.95439691676904</v>
+        <v>15.27606815547814</v>
       </c>
       <c r="F106">
-        <v>15.25646596865922</v>
+        <v>15.83315331789197</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>15.27533524265429</v>
+        <v>15.22883713261805</v>
       </c>
       <c r="C107">
-        <v>15.82183079308564</v>
+        <v>15.39798843734325</v>
       </c>
       <c r="D107">
-        <v>15.84054568772494</v>
+        <v>15.39383532499193</v>
       </c>
       <c r="E107">
-        <v>15.92020126067462</v>
+        <v>15.26940202050736</v>
       </c>
       <c r="F107">
-        <v>15.24992501307867</v>
+        <v>15.79952342661402</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>15.26848625270824</v>
+        <v>15.22250181266315</v>
       </c>
       <c r="C108">
-        <v>15.79268663566579</v>
+        <v>15.38956917169752</v>
       </c>
       <c r="D108">
-        <v>15.80597171159507</v>
+        <v>15.38505515254686</v>
       </c>
       <c r="E108">
-        <v>15.88603624038829</v>
+        <v>15.26272094334113</v>
       </c>
       <c r="F108">
-        <v>15.24338513052271</v>
+        <v>15.76593263227819</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>15.26162909727972</v>
+        <v>15.21616790171853</v>
       </c>
       <c r="C109">
-        <v>15.7634663224526</v>
+        <v>15.38111566959451</v>
       </c>
       <c r="D109">
-        <v>15.7714269334038</v>
+        <v>15.37625705204393</v>
       </c>
       <c r="E109">
-        <v>15.85190294511848</v>
+        <v>15.25602528290662</v>
       </c>
       <c r="F109">
-        <v>15.23684632142713</v>
+        <v>15.73238102331279</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>15.25476403021631</v>
+        <v>15.20983540079038</v>
       </c>
       <c r="C110">
-        <v>15.73417407030393</v>
+        <v>15.37262986754688</v>
       </c>
       <c r="D110">
-        <v>15.73691209479698</v>
+        <v>15.36744253791698</v>
       </c>
       <c r="E110">
-        <v>15.81780232177248</v>
+        <v>15.24931538721896</v>
       </c>
       <c r="F110">
-        <v>15.23030858619035</v>
+        <v>15.69886868354876</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>15.24789129668327</v>
+        <v>15.20350431084394</v>
       </c>
       <c r="C111">
-        <v>15.70481389820353</v>
+        <v>15.36411361058404</v>
       </c>
       <c r="D111">
-        <v>15.70242790827228</v>
+        <v>15.35861301826087</v>
       </c>
       <c r="E111">
-        <v>15.78373526976588</v>
+        <v>15.24259159164286</v>
       </c>
       <c r="F111">
-        <v>15.22377192524048</v>
+        <v>15.66539568528061</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>15.24101113328526</v>
+        <v>15.19717463279375</v>
       </c>
       <c r="C112">
-        <v>15.67538963803735</v>
+        <v>15.35556864233372</v>
       </c>
       <c r="D112">
-        <v>15.66797503287319</v>
+        <v>15.34976980403102</v>
       </c>
       <c r="E112">
-        <v>15.74970261980439</v>
+        <v>15.23585422266174</v>
       </c>
       <c r="F112">
-        <v>15.21723633897537</v>
+        <v>15.63196209368782</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>15.23412376988231</v>
+        <v>15.19084636752086</v>
       </c>
       <c r="C113">
-        <v>15.64590494797085</v>
+        <v>15.34699661541242</v>
       </c>
       <c r="D113">
-        <v>15.6335540726056</v>
+        <v>15.34091411263003</v>
       </c>
       <c r="E113">
-        <v>15.71570513256527</v>
+        <v>15.2291035959296</v>
       </c>
       <c r="F113">
-        <v>15.21070182778825</v>
+        <v>15.59856796944722</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>15.22722942539266</v>
+        <v>15.18451951586368</v>
       </c>
       <c r="C114">
-        <v>15.61636331719577</v>
+        <v>15.33839910086262</v>
       </c>
       <c r="D114">
-        <v>15.59916559084872</v>
+        <v>15.33204708379723</v>
       </c>
       <c r="E114">
-        <v>15.68174350845119</v>
+        <v>15.22234001722425</v>
       </c>
       <c r="F114">
-        <v>15.20416839204645</v>
+        <v>15.56521336322479</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>15.22032831361303</v>
+        <v>15.17819407862387</v>
       </c>
       <c r="C115">
-        <v>15.58676802359387</v>
+        <v>15.32977758010093</v>
       </c>
       <c r="D115">
-        <v>15.56481012088446</v>
+        <v>15.32316976651775</v>
       </c>
       <c r="E115">
-        <v>15.64781840597039</v>
+        <v>15.21556378400354</v>
       </c>
       <c r="F115">
-        <v>15.1976360321328</v>
+        <v>15.53189832411819</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>15.21342064032677</v>
+        <v>15.17187005657264</v>
       </c>
       <c r="C116">
-        <v>15.55712230578753</v>
+        <v>15.32113346505798</v>
       </c>
       <c r="D116">
-        <v>15.53048813609511</v>
+        <v>15.31428315113076</v>
       </c>
       <c r="E116">
-        <v>15.61393041151047</v>
+        <v>15.20877518383322</v>
       </c>
       <c r="F116">
-        <v>15.19110474840104</v>
+        <v>15.49862289359125</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>15.20650660369823</v>
+        <v>15.16554745044288</v>
       </c>
       <c r="C117">
-        <v>15.52742913896371</v>
+        <v>15.31246808931105</v>
       </c>
       <c r="D117">
-        <v>15.49620009474393</v>
+        <v>15.30538815684694</v>
       </c>
       <c r="E117">
-        <v>15.58008008365527</v>
+        <v>15.20197449679814</v>
       </c>
       <c r="F117">
-        <v>15.1845745411932</v>
+        <v>15.46538711057814</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>15.19958639584079</v>
+        <v>15.15922626094247</v>
       </c>
       <c r="C118">
-        <v>15.49769133911567</v>
+        <v>15.30378271704229</v>
       </c>
       <c r="D118">
-        <v>15.46194641213777</v>
+        <v>15.29648562956668</v>
       </c>
       <c r="E118">
-        <v>15.54626792589114</v>
+        <v>15.19516199469016</v>
       </c>
       <c r="F118">
-        <v>15.17804541085001</v>
+        <v>15.43219100957651</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>15.1926602024698</v>
+        <v>15.15290648874712</v>
       </c>
       <c r="C119">
-        <v>15.46791176816378</v>
+        <v>15.29507854987342</v>
       </c>
       <c r="D119">
-        <v>15.42772747694558</v>
+        <v>15.28757637619529</v>
       </c>
       <c r="E119">
-        <v>15.51249440795247</v>
+        <v>15.18833794109074</v>
       </c>
       <c r="F119">
-        <v>15.17151735770056</v>
+        <v>15.39903462244039</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>15.18572820324296</v>
+        <v>15.14658813450554</v>
       </c>
       <c r="C120">
-        <v>15.43809297618095</v>
+        <v>15.2863567206827</v>
       </c>
       <c r="D120">
-        <v>15.39354365126256</v>
+        <v>15.27866112856015</v>
       </c>
       <c r="E120">
-        <v>15.47875996299505</v>
+        <v>15.18150259298864</v>
       </c>
       <c r="F120">
-        <v>15.16499038206185</v>
+        <v>15.36591797787002</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>15.17879057200034</v>
+        <v>15.14027119884217</v>
       </c>
       <c r="C121">
-        <v>15.4082374518662</v>
+        <v>15.2776183094544</v>
       </c>
       <c r="D121">
-        <v>15.35939527319302</v>
+        <v>15.26974058223041</v>
       </c>
       <c r="E121">
-        <v>15.44506499285676</v>
+        <v>15.17465619963511</v>
       </c>
       <c r="F121">
-        <v>15.15846448424598</v>
+        <v>15.33284110237708</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>15.1718474772145</v>
+        <v>15.13395568235421</v>
       </c>
       <c r="C122">
-        <v>15.37834765256227</v>
+        <v>15.26886433591463</v>
       </c>
       <c r="D122">
-        <v>15.32528265910581</v>
+        <v>15.26081538270733</v>
       </c>
       <c r="E122">
-        <v>15.41140986640104</v>
+        <v>15.16779900370836</v>
       </c>
       <c r="F122">
-        <v>15.1519396645708</v>
+        <v>15.29980402045971</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>15.16489908149861</v>
+        <v>15.12764158561867</v>
       </c>
       <c r="C123">
-        <v>15.3484258548227</v>
+        <v>15.26009576707005</v>
       </c>
       <c r="D123">
-        <v>15.29120609576982</v>
+        <v>15.25188612525851</v>
       </c>
       <c r="E123">
-        <v>15.37779492416604</v>
+        <v>15.16093124160978</v>
       </c>
       <c r="F123">
-        <v>15.14541592332998</v>
+        <v>15.26680675395668</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>15.15794554283236</v>
+        <v>15.12132890918841</v>
       </c>
       <c r="C124">
-        <v>15.3184742634889</v>
+        <v>15.25131352197469</v>
       </c>
       <c r="D124">
-        <v>15.25716586327833</v>
+        <v>15.24295337373189</v>
       </c>
       <c r="E124">
-        <v>15.34422049218581</v>
+        <v>15.15405314281845</v>
       </c>
       <c r="F124">
-        <v>15.13889326081426</v>
+        <v>15.23384932392823</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>15.1509870149464</v>
+        <v>15.11501765359635</v>
       </c>
       <c r="C125">
-        <v>15.28849498799414</v>
+        <v>15.24251846710589</v>
       </c>
       <c r="D125">
-        <v>15.22316222599327</v>
+        <v>15.23401764678719</v>
       </c>
       <c r="E125">
-        <v>15.31068687841798</v>
+        <v>15.14716493144751</v>
       </c>
       <c r="F125">
-        <v>15.13237167731146</v>
+        <v>15.20093174870222</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>15.14402364707962</v>
+        <v>15.10870781935629</v>
       </c>
       <c r="C126">
-        <v>15.25849007047395</v>
+        <v>15.23371142873392</v>
       </c>
       <c r="D126">
-        <v>15.18919543155333</v>
+        <v>15.22507943331689</v>
       </c>
       <c r="E126">
-        <v>15.27719432505417</v>
+        <v>15.14026682549329</v>
       </c>
       <c r="F126">
-        <v>15.12585117312223</v>
+        <v>15.16805404607246</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>15.13705558189242</v>
+        <v>15.10239940696135</v>
       </c>
       <c r="C127">
-        <v>15.22846144352821</v>
+        <v>15.22489318684936</v>
       </c>
       <c r="D127">
-        <v>15.15526567489853</v>
+        <v>15.21613918905848</v>
       </c>
       <c r="E127">
-        <v>15.24374310574615</v>
+        <v>15.1333590372587</v>
       </c>
       <c r="F127">
-        <v>15.11933174851597</v>
+        <v>15.13521623188988</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>15.13008295891253</v>
+        <v>15.09609241688922</v>
       </c>
       <c r="C128">
-        <v>15.19841095342563</v>
+        <v>15.21606448145931</v>
       </c>
       <c r="D128">
-        <v>15.12137319226825</v>
+        <v>15.20719733637855</v>
       </c>
       <c r="E128">
-        <v>15.21033347282441</v>
+        <v>15.12644177406906</v>
       </c>
       <c r="F128">
-        <v>15.1128134037657</v>
+        <v>15.10241832120704</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>15.12310591501689</v>
+        <v>15.08978684959863</v>
       </c>
       <c r="C129">
-        <v>15.16834039622033</v>
+        <v>15.20722601581345</v>
       </c>
       <c r="D129">
-        <v>15.08751819602933</v>
+        <v>15.19825427583419</v>
       </c>
       <c r="E129">
-        <v>15.17696565081995</v>
+        <v>15.1195152375744</v>
       </c>
       <c r="F129">
-        <v>15.10629613914139</v>
+        <v>15.06966032789848</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>15.11612458280637</v>
+        <v>15.0834827055333</v>
       </c>
       <c r="C130">
-        <v>15.13825146813262</v>
+        <v>15.1983784530545</v>
       </c>
       <c r="D130">
-        <v>15.05370087843681</v>
+        <v>15.1893103752978</v>
       </c>
       <c r="E130">
-        <v>15.14363980776913</v>
+        <v>15.11257962487674</v>
       </c>
       <c r="F130">
-        <v>15.09977995491992</v>
+        <v>15.03694226497674</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>15.10913908850608</v>
+        <v>15.07717998512172</v>
       </c>
       <c r="C131">
-        <v>15.10814580105198</v>
+        <v>15.18952242570677</v>
       </c>
       <c r="D131">
-        <v>15.01992137623968</v>
+        <v>15.18036598334522</v>
       </c>
       <c r="E131">
-        <v>15.11035616353707</v>
+        <v>15.10563512817497</v>
       </c>
       <c r="F131">
-        <v>15.09326485136029</v>
+        <v>15.00426414456399</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>15.10214955589687</v>
+        <v>15.0708786887767</v>
       </c>
       <c r="C132">
-        <v>15.07802496205679</v>
+        <v>15.18065853081739</v>
       </c>
       <c r="D132">
-        <v>14.9861798855335</v>
+        <v>15.1714214253756</v>
       </c>
       <c r="E132">
-        <v>15.07711490770685</v>
+        <v>15.09868193481478</v>
       </c>
       <c r="F132">
-        <v>15.08675082872343</v>
+        <v>14.97162597792923</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>15.09515610682696</v>
+        <v>15.06457881689868</v>
       </c>
       <c r="C133">
-        <v>15.04789045613546</v>
+        <v>15.17178733513547</v>
       </c>
       <c r="D133">
-        <v>14.95247657289773</v>
+        <v>15.16247700218881</v>
       </c>
       <c r="E133">
-        <v>15.0439161876801</v>
+        <v>15.09172022804851</v>
       </c>
       <c r="F133">
-        <v>15.08023788726716</v>
+        <v>14.93902777615134</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>15.08815885914723</v>
+        <v>15.05828036987224</v>
       </c>
       <c r="C134">
-        <v>15.01774372418126</v>
+        <v>15.16290937720543</v>
       </c>
       <c r="D134">
-        <v>14.91881158428374</v>
+        <v>15.15353300006838</v>
       </c>
       <c r="E134">
-        <v>15.01076015009807</v>
+        <v>15.08475018654154</v>
       </c>
       <c r="F134">
-        <v>15.07372602724447</v>
+        <v>14.90646954976577</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>15.08115792567238</v>
+        <v>15.05198334807172</v>
       </c>
       <c r="C135">
-        <v>14.98758615152344</v>
+        <v>15.15402516503102</v>
       </c>
       <c r="D135">
-        <v>14.88518503311548</v>
+        <v>15.14458968267038</v>
       </c>
       <c r="E135">
-        <v>14.97764694869357</v>
+        <v>15.07777198490789</v>
       </c>
       <c r="F135">
-        <v>15.06721524890862</v>
+        <v>14.87395130737924</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>15.07415341683844</v>
+        <v>15.04568775185994</v>
       </c>
       <c r="C136">
-        <v>14.95741907087033</v>
+        <v>15.14513518326922</v>
       </c>
       <c r="D136">
-        <v>14.85159706774016</v>
+        <v>15.13564729925426</v>
       </c>
       <c r="E136">
-        <v>14.94457671868566</v>
+        <v>15.07078579386974</v>
       </c>
       <c r="F136">
-        <v>15.06070555250983</v>
+        <v>14.84147305901183</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>15.06714544111331</v>
+        <v>15.03939358158793</v>
       </c>
       <c r="C137">
-        <v>14.92724376533188</v>
+        <v>15.13623988938979</v>
       </c>
       <c r="D137">
-        <v>14.81804781434002</v>
+        <v>15.12670608309888</v>
       </c>
       <c r="E137">
-        <v>14.91154956730136</v>
+        <v>15.06379177998697</v>
       </c>
       <c r="F137">
-        <v>15.05419693829499</v>
+        <v>14.80903481402283</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>15.06013410358825</v>
+        <v>15.0331008375904</v>
       </c>
       <c r="C138">
-        <v>14.89706146872535</v>
+        <v>15.1273397179082</v>
       </c>
       <c r="D138">
-        <v>14.78453738587803</v>
+        <v>15.11776625089624</v>
       </c>
       <c r="E138">
-        <v>14.87856561386688</v>
+        <v>15.05679010637732</v>
       </c>
       <c r="F138">
-        <v>15.04768940649352</v>
+        <v>14.77663658010091</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>15.05311950563585</v>
+        <v>15.02680952020002</v>
       </c>
       <c r="C139">
-        <v>14.86687336082862</v>
+        <v>15.11843508167969</v>
       </c>
       <c r="D139">
-        <v>14.75106588359781</v>
+        <v>15.10882800835458</v>
       </c>
       <c r="E139">
-        <v>14.84562496306387</v>
+        <v>15.04978093239415</v>
       </c>
       <c r="F139">
-        <v>15.04118295735413</v>
+        <v>14.74427836518929</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>15.04610174631824</v>
+        <v>15.02051962973815</v>
       </c>
       <c r="C140">
-        <v>14.83668058927166</v>
+        <v>15.10952637030796</v>
       </c>
       <c r="D140">
-        <v>14.71763341499395</v>
+        <v>15.09989154584113</v>
       </c>
       <c r="E140">
-        <v>14.81272771098545</v>
+        <v>15.04276441383386</v>
       </c>
       <c r="F140">
-        <v>15.03467759111689</v>
+        <v>14.71196017772628</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>15.0390809226724</v>
+        <v>15.01423116651287</v>
       </c>
       <c r="C141">
-        <v>14.80648425172079</v>
+        <v>15.10061395557041</v>
       </c>
       <c r="D141">
-        <v>14.68424007707431</v>
+        <v>15.09095704346928</v>
       </c>
       <c r="E141">
-        <v>14.77987394550475</v>
+        <v>15.03574070329052</v>
       </c>
       <c r="F141">
-        <v>15.02817330802089</v>
+        <v>14.67968202530069</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>15.03205712901885</v>
+        <v>15.00794413082092</v>
       </c>
       <c r="C142">
-        <v>14.7762853999564</v>
+        <v>15.0916981884081</v>
       </c>
       <c r="D142">
-        <v>14.65088596035584</v>
+        <v>15.08202467020388</v>
       </c>
       <c r="E142">
-        <v>14.74706375151244</v>
+        <v>15.02870994983255</v>
       </c>
       <c r="F142">
-        <v>15.0216701083047</v>
+        <v>14.64744391425693</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>15.02503045660175</v>
+        <v>15.00165852295839</v>
       </c>
       <c r="C143">
-        <v>14.74608505669815</v>
+        <v>15.08277940236197</v>
       </c>
       <c r="D143">
-        <v>14.61757115048463</v>
+        <v>15.07309458301751</v>
       </c>
       <c r="E143">
-        <v>14.71429720768766</v>
+        <v>15.02167229955662</v>
       </c>
       <c r="F143">
-        <v>15.01516799220668</v>
+        <v>14.6152458520818</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>15.01800099463932</v>
+        <v>14.99537434321098</v>
       </c>
       <c r="C144">
-        <v>14.71588419992959</v>
+        <v>15.07385791431665</v>
       </c>
       <c r="D144">
-        <v>14.58429573044458</v>
+        <v>15.06416693143381</v>
       </c>
       <c r="E144">
-        <v>14.68157438241004</v>
+        <v>15.01462789543032</v>
       </c>
       <c r="F144">
-        <v>15.00866695995398</v>
+        <v>14.5830878456297</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>15.01096883056926</v>
+        <v>14.9890915918498</v>
       </c>
       <c r="C145">
-        <v>14.68568377204284</v>
+        <v>15.0649340234589</v>
       </c>
       <c r="D145">
-        <v>14.55105977891346</v>
+        <v>15.05524185388595</v>
       </c>
       <c r="E145">
-        <v>14.64889534328237</v>
+        <v>15.00757687732389</v>
       </c>
       <c r="F145">
-        <v>15.00216701176178</v>
+        <v>14.55096990108405</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>15.00393404954204</v>
+        <v>14.98281026914317</v>
       </c>
       <c r="C146">
-        <v>14.65548468410888</v>
+        <v>15.05600801533704</v>
       </c>
       <c r="D146">
-        <v>14.51786336760192</v>
+        <v>15.04631948145138</v>
       </c>
       <c r="E146">
-        <v>14.6162601545637</v>
+        <v>15.00051938239072</v>
       </c>
       <c r="F146">
-        <v>14.99566814787146</v>
+        <v>14.51889202486215</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>14.99689673385038</v>
+        <v>14.97653037535347</v>
       </c>
       <c r="C147">
-        <v>14.62528781150774</v>
+        <v>15.04708015952434</v>
       </c>
       <c r="D147">
-        <v>14.48470656607181</v>
+        <v>15.03739993733455</v>
       </c>
       <c r="E147">
-        <v>14.5836688749348</v>
+        <v>14.99345554472492</v>
       </c>
       <c r="F147">
-        <v>14.98917036851134</v>
+        <v>14.48685422315803</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>14.98985696409455</v>
+        <v>14.97025191073507</v>
       </c>
       <c r="C148">
-        <v>14.59509399983483</v>
+        <v>15.03815071239375</v>
       </c>
       <c r="D148">
-        <v>14.45158944318512</v>
+        <v>15.02848333622842</v>
       </c>
       <c r="E148">
-        <v>14.55112155037697</v>
+        <v>14.98638549583039</v>
       </c>
       <c r="F148">
-        <v>14.98267367390872</v>
+        <v>14.45485650197181</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>14.98281481944958</v>
+        <v>14.96397487553113</v>
       </c>
       <c r="C149">
-        <v>14.56490406514094</v>
+        <v>15.02921991749295</v>
       </c>
       <c r="D149">
-        <v>14.41851206433994</v>
+        <v>15.01956978729917</v>
       </c>
       <c r="E149">
-        <v>14.51861823423205</v>
+        <v>14.97930936471548</v>
       </c>
       <c r="F149">
-        <v>14.97617806428486</v>
+        <v>14.42289886716542</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>14.975770377031</v>
+        <v>14.95769926998368</v>
       </c>
       <c r="C150">
-        <v>14.53471878864696</v>
+        <v>15.0202880048904</v>
       </c>
       <c r="D150">
-        <v>14.38547448496628</v>
+        <v>15.01065939204224</v>
       </c>
       <c r="E150">
-        <v>14.48615897312028</v>
+        <v>14.97222727789335</v>
       </c>
       <c r="F150">
-        <v>14.96968353985704</v>
+        <v>14.39098132455059</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>14.96872371138931</v>
+        <v>14.95142509432705</v>
       </c>
       <c r="C151">
-        <v>14.5045389320525</v>
+        <v>15.01135519420437</v>
       </c>
       <c r="D151">
-        <v>14.35247676249268</v>
+        <v>15.00175224651438</v>
       </c>
       <c r="E151">
-        <v>14.45374380669016</v>
+        <v>14.96513935863423</v>
       </c>
       <c r="F151">
-        <v>14.9631901008501</v>
+        <v>14.35910387983499</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>14.96167489559359</v>
+        <v>14.94515234878915</v>
       </c>
       <c r="C152">
-        <v>14.47436523050737</v>
+        <v>15.00242169279346</v>
       </c>
       <c r="D152">
-        <v>14.31951895365736</v>
+        <v>14.99284844117137</v>
       </c>
       <c r="E152">
-        <v>14.4213727703277</v>
+        <v>14.95804572853621</v>
       </c>
       <c r="F152">
-        <v>14.95669774748347</v>
+        <v>14.32726653847712</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>14.9546240014911</v>
+        <v>14.93888103359113</v>
       </c>
       <c r="C153">
-        <v>14.44419839646004</v>
+        <v>14.99348769799133</v>
       </c>
       <c r="D153">
-        <v>14.28660111171723</v>
+        <v>14.98394806040549</v>
       </c>
       <c r="E153">
-        <v>14.38904590080881</v>
+        <v>14.95094650694074</v>
       </c>
       <c r="F153">
-        <v>14.95020647997518</v>
+        <v>14.29546930607029</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>14.94757109907834</v>
+        <v>14.93261114895072</v>
       </c>
       <c r="C154">
-        <v>14.41403910862865</v>
+        <v>14.98455339724224</v>
       </c>
       <c r="D154">
-        <v>14.25372328104399</v>
+        <v>14.97505118459969</v>
       </c>
       <c r="E154">
-        <v>14.35676323027423</v>
+        <v>14.94384181095822</v>
       </c>
       <c r="F154">
-        <v>14.94371629854366</v>
+        <v>14.26371218810649</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>14.94051625621099</v>
+        <v>14.92634269507998</v>
       </c>
       <c r="C155">
-        <v>14.38388801480838</v>
+        <v>14.97561896771618</v>
       </c>
       <c r="D155">
-        <v>14.22088550938214</v>
+        <v>14.96615788861604</v>
       </c>
       <c r="E155">
-        <v>14.32452478517103</v>
+        <v>14.93673175414882</v>
       </c>
       <c r="F155">
-        <v>14.93722720340642</v>
+        <v>14.23199518983794</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>14.93345953938254</v>
+        <v>14.92007567218473</v>
       </c>
       <c r="C156">
-        <v>14.35374576750594</v>
+        <v>14.96668457856129</v>
       </c>
       <c r="D156">
-        <v>14.18808784187956</v>
+        <v>14.95726824336219</v>
       </c>
       <c r="E156">
-        <v>14.29233059210367</v>
+        <v>14.92961644936502</v>
       </c>
       <c r="F156">
-        <v>14.93073919477777</v>
+        <v>14.20031831652032</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>14.92640101393274</v>
+        <v>14.91381008046638</v>
       </c>
       <c r="C157">
-        <v>14.32361299100446</v>
+        <v>14.95775038950825</v>
       </c>
       <c r="D157">
-        <v>14.15533032104481</v>
+        <v>14.9483823157234</v>
       </c>
       <c r="E157">
-        <v>14.26018067459758</v>
+        <v>14.92249600712253</v>
       </c>
       <c r="F157">
-        <v>14.92425227287215</v>
+        <v>14.16868157346244</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>14.91934074359487</v>
+        <v>14.90754592012284</v>
       </c>
       <c r="C158">
-        <v>14.29349029309307</v>
+        <v>14.94881655266477</v>
       </c>
       <c r="D158">
-        <v>14.12261298479311</v>
+        <v>14.93950016815267</v>
       </c>
       <c r="E158">
-        <v>14.22807505360963</v>
+        <v>14.91537053591712</v>
       </c>
       <c r="F158">
-        <v>14.91776643790308</v>
+        <v>14.1370849658399</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>14.91227879033699</v>
+        <v>14.90128319134733</v>
       </c>
       <c r="C159">
-        <v>14.26337822039211</v>
+        <v>14.93988321250184</v>
       </c>
       <c r="D159">
-        <v>14.08993587184739</v>
+        <v>14.93062186017642</v>
       </c>
       <c r="E159">
-        <v>14.19601374743274</v>
+        <v>14.90824014101644</v>
       </c>
       <c r="F159">
-        <v>14.91128169008552</v>
+        <v>14.10552849863732</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>14.90521521488028</v>
+        <v>14.89502189432617</v>
       </c>
       <c r="C160">
-        <v>14.23327734148934</v>
+        <v>14.93095050565125</v>
       </c>
       <c r="D160">
-        <v>14.0572990183754</v>
+        <v>14.92174744735193</v>
       </c>
       <c r="E160">
-        <v>14.16399677319654</v>
+        <v>14.90110492719031</v>
       </c>
       <c r="F160">
-        <v>14.90479802963291</v>
+        <v>14.07401217697608</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>14.89815007685772</v>
+        <v>14.88876202924436</v>
       </c>
       <c r="C161">
-        <v>14.20318820883621</v>
+        <v>14.92201856257674</v>
       </c>
       <c r="D161">
-        <v>14.02470245880886</v>
+        <v>14.91287698229319</v>
       </c>
       <c r="E161">
-        <v>14.13202414602424</v>
+        <v>14.89396499687908</v>
       </c>
       <c r="F161">
-        <v>14.89831545675622</v>
+        <v>14.04253600587326</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>14.89108343452398</v>
+        <v>14.88250359628242</v>
       </c>
       <c r="C162">
-        <v>14.17311135373974</v>
+        <v>14.91308750649891</v>
       </c>
       <c r="D162">
-        <v>13.99214622553606</v>
+        <v>14.90401051469161</v>
       </c>
       <c r="E162">
-        <v>14.10009587837522</v>
+        <v>14.88682045068168</v>
       </c>
       <c r="F162">
-        <v>14.89183397166692</v>
+        <v>14.01109999025299</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>14.88401534459997</v>
+        <v>14.87624659561671</v>
       </c>
       <c r="C163">
-        <v>14.14304728628382</v>
+        <v>14.90415745483446</v>
       </c>
       <c r="D163">
-        <v>13.95963035007192</v>
+        <v>14.89514809103357</v>
       </c>
       <c r="E163">
-        <v>14.06821198144166</v>
+        <v>14.87967138678326</v>
       </c>
       <c r="F163">
-        <v>14.88535357457603</v>
+        <v>13.97970413504162</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>14.87694586269614</v>
+        <v>14.86999102741819</v>
       </c>
       <c r="C164">
-        <v>14.1129964674005</v>
+        <v>14.8952285190943</v>
       </c>
       <c r="D164">
-        <v>13.92715486243778</v>
+        <v>14.88628975561106</v>
       </c>
       <c r="E164">
-        <v>14.03637246554607</v>
+        <v>14.87251790235355</v>
       </c>
       <c r="F164">
-        <v>14.87887426569409</v>
+        <v>13.94834844512402</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>14.86987504345277</v>
+        <v>14.86373689185653</v>
       </c>
       <c r="C165">
-        <v>14.08295939333946</v>
+        <v>14.88630080480078</v>
       </c>
       <c r="D165">
-        <v>13.8947197913141</v>
+        <v>14.87743554952294</v>
       </c>
       <c r="E165">
-        <v>14.00457733936968</v>
+        <v>14.86536009261826</v>
       </c>
       <c r="F165">
-        <v>14.87239604523131</v>
+        <v>13.91703292534926</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>14.86280294029972</v>
+        <v>14.85748418909728</v>
       </c>
       <c r="C166">
-        <v>14.05293652819437</v>
+        <v>14.87737441272603</v>
       </c>
       <c r="D166">
-        <v>13.86232516308559</v>
+        <v>14.86858551195283</v>
       </c>
       <c r="E166">
-        <v>13.97282660796269</v>
+        <v>14.85819805111401</v>
       </c>
       <c r="F166">
-        <v>14.86591891339754</v>
+        <v>13.88575758053812</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>14.85572960528177</v>
+        <v>14.85123291930209</v>
       </c>
       <c r="C167">
-        <v>14.02292832311915</v>
+        <v>14.86844943806397</v>
       </c>
       <c r="D167">
-        <v>13.82997100446888</v>
+        <v>14.85973968019769</v>
       </c>
       <c r="E167">
-        <v>13.94112027767285</v>
+        <v>14.85103186946624</v>
       </c>
       <c r="F167">
-        <v>14.85944287039871</v>
+        <v>13.85452241548798</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>14.84865508946184</v>
+        <v>14.84498308262909</v>
       </c>
       <c r="C168">
-        <v>13.99293520386072</v>
+        <v>14.85952597158366</v>
       </c>
       <c r="D168">
-        <v>13.79765734073314</v>
+        <v>14.85089808970643</v>
       </c>
       <c r="E168">
-        <v>13.90945835287909</v>
+        <v>14.8438616380827</v>
       </c>
       <c r="F168">
-        <v>14.85296791644436</v>
+        <v>13.82332743497406</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>14.8415794430594</v>
+        <v>14.83873467923424</v>
       </c>
       <c r="C169">
-        <v>13.96295758512163</v>
+        <v>14.85060409948018</v>
       </c>
       <c r="D169">
-        <v>13.76538419584849</v>
+        <v>14.84206077148105</v>
       </c>
       <c r="E169">
-        <v>13.87784083626211</v>
+        <v>14.83668744571433</v>
       </c>
       <c r="F169">
-        <v>14.84649405174321</v>
+        <v>13.79217264372271</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>14.83450271520543</v>
+        <v>14.83248770927019</v>
       </c>
       <c r="C170">
-        <v>13.93299588095546</v>
+        <v>14.84168390336821</v>
       </c>
       <c r="D170">
-        <v>13.7331515913674</v>
+        <v>14.83322775775136</v>
       </c>
       <c r="E170">
-        <v>13.84626772868463</v>
+        <v>14.82950937955261</v>
       </c>
       <c r="F170">
-        <v>14.84002127650321</v>
+        <v>13.76105804647491</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>14.8274249537934</v>
+        <v>14.82624217288598</v>
       </c>
       <c r="C171">
-        <v>13.90305048783373</v>
+        <v>14.83276546119806</v>
       </c>
       <c r="D171">
-        <v>13.7009595499815</v>
+        <v>14.824399078465</v>
       </c>
       <c r="E171">
-        <v>13.81473903122391</v>
+        <v>14.8223275250448</v>
       </c>
       <c r="F171">
-        <v>14.83354959093204</v>
+        <v>13.72998364794781</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>14.82034620583491</v>
+        <v>14.81999807022837</v>
       </c>
       <c r="C172">
-        <v>13.87312179121737</v>
+        <v>14.82384884661831</v>
       </c>
       <c r="D172">
-        <v>13.66880809284656</v>
+        <v>14.81557476190026</v>
       </c>
       <c r="E172">
-        <v>13.78325474350199</v>
+        <v>14.81514196657396</v>
       </c>
       <c r="F172">
-        <v>14.82707899523684</v>
+        <v>13.69894945281032</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>14.81326651758828</v>
+        <v>14.81375540144154</v>
       </c>
       <c r="C173">
-        <v>13.84321015505435</v>
+        <v>14.81493412989944</v>
       </c>
       <c r="D173">
-        <v>13.63669723989168</v>
+        <v>14.80675483173612</v>
       </c>
       <c r="E173">
-        <v>13.7518148635737</v>
+        <v>14.80795278699945</v>
       </c>
       <c r="F173">
-        <v>14.82060948961977</v>
+        <v>13.66795546572346</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>14.80618593433243</v>
+        <v>14.80751416666697</v>
       </c>
       <c r="C174">
-        <v>13.81331594532678</v>
+        <v>14.80602137776419</v>
       </c>
       <c r="D174">
-        <v>13.60462700938764</v>
+        <v>14.79793931431979</v>
       </c>
       <c r="E174">
-        <v>13.72041938898468</v>
+        <v>14.80076006771831</v>
       </c>
       <c r="F174">
-        <v>14.81414107428947</v>
+        <v>13.63700169135236</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>14.79910450026634</v>
+        <v>14.80127436604271</v>
       </c>
       <c r="C175">
-        <v>13.78343951419899</v>
+        <v>14.79711065342727</v>
       </c>
       <c r="D175">
-        <v>13.57259742018574</v>
+        <v>14.7891282335261</v>
       </c>
       <c r="E175">
-        <v>13.68906831648851</v>
+        <v>14.79356388853941</v>
       </c>
       <c r="F175">
-        <v>14.80767374945172</v>
+        <v>13.60608813433191</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>14.79202225878593</v>
+        <v>14.79503599970545</v>
       </c>
       <c r="C176">
-        <v>13.75358120427487</v>
+        <v>14.7882020172723</v>
       </c>
       <c r="D176">
-        <v>13.54060848990468</v>
+        <v>14.78032161144589</v>
       </c>
       <c r="E176">
-        <v>13.657761641905</v>
+        <v>14.78636432832132</v>
       </c>
       <c r="F176">
-        <v>14.80120751531205</v>
+        <v>13.57521479925536</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>14.78493925259204</v>
+        <v>14.78879906778917</v>
       </c>
       <c r="C177">
-        <v>13.72374134631096</v>
+        <v>14.77929552636077</v>
       </c>
       <c r="D177">
-        <v>13.50866023523145</v>
+        <v>14.77151946723261</v>
       </c>
       <c r="E177">
-        <v>13.62649935997071</v>
+        <v>14.77916146450799</v>
       </c>
       <c r="F177">
-        <v>14.7947423720757</v>
+        <v>13.54438169073449</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>14.77785552351327</v>
+        <v>14.7825635704254</v>
       </c>
       <c r="C178">
-        <v>13.69392025763749</v>
+        <v>14.77039123517169</v>
       </c>
       <c r="D178">
-        <v>13.47675267196071</v>
+        <v>14.76272182159572</v>
       </c>
       <c r="E178">
-        <v>13.59528146509352</v>
+        <v>14.77195537317666</v>
       </c>
       <c r="F178">
-        <v>14.78827831994713</v>
+        <v>13.51358881335565</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>14.77077111243546</v>
+        <v>14.77632950774291</v>
       </c>
       <c r="C179">
-        <v>13.66411825597473</v>
+        <v>14.76148919542822</v>
       </c>
       <c r="D179">
-        <v>13.44488581569171</v>
+        <v>14.75392869329182</v>
       </c>
       <c r="E179">
-        <v>13.56410795089763</v>
+        <v>14.76474612901041</v>
       </c>
       <c r="F179">
-        <v>14.78181535912973</v>
+        <v>13.48283617168132</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>14.76368605951328</v>
+        <v>14.77009687986917</v>
       </c>
       <c r="C180">
-        <v>13.63433564759816</v>
+        <v>14.75258945616319</v>
       </c>
       <c r="D180">
-        <v>13.41305968124234</v>
+        <v>14.74514009954827</v>
       </c>
       <c r="E180">
-        <v>13.53297881014934</v>
+        <v>14.75753380575113</v>
       </c>
       <c r="F180">
-        <v>14.7753534898285</v>
+        <v>13.45212377026781</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>14.75660040425966</v>
+        <v>14.76386568692926</v>
       </c>
       <c r="C181">
-        <v>13.60457273131362</v>
+        <v>14.74369206421867</v>
       </c>
       <c r="D181">
-        <v>13.38127428272308</v>
+        <v>14.73635605624007</v>
       </c>
       <c r="E181">
-        <v>13.50189403494802</v>
+        <v>14.75031847585088</v>
       </c>
       <c r="F181">
-        <v>14.7688927122474</v>
+        <v>13.42145161365752</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>14.74951418541141</v>
+        <v>14.75763592904581</v>
       </c>
       <c r="C182">
-        <v>13.57482978958501</v>
+        <v>14.73479706386744</v>
       </c>
       <c r="D182">
-        <v>13.34952963366788</v>
+        <v>14.7275765792958</v>
       </c>
       <c r="E182">
-        <v>13.47085361711056</v>
+        <v>14.74310021050392</v>
       </c>
       <c r="F182">
-        <v>14.76243302659016</v>
+        <v>13.39081970637881</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>14.74242744086537</v>
+        <v>14.75140760633961</v>
       </c>
       <c r="C183">
-        <v>13.5451071034633</v>
+        <v>14.72590449740533</v>
       </c>
       <c r="D183">
-        <v>13.317825747264</v>
+        <v>14.71880168343018</v>
       </c>
       <c r="E183">
-        <v>13.4398575478323</v>
+        <v>14.73587907969237</v>
       </c>
       <c r="F183">
-        <v>14.75597443306033</v>
+        <v>13.36022805294741</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>14.735340207856</v>
+        <v>14.74518071892979</v>
       </c>
       <c r="C184">
-        <v>13.51540494934725</v>
+        <v>14.7170144049842</v>
       </c>
       <c r="D184">
-        <v>13.28616263616066</v>
+        <v>14.71003138221905</v>
       </c>
       <c r="E184">
-        <v>13.40890581723344</v>
+        <v>14.72865515243707</v>
       </c>
       <c r="F184">
-        <v>14.74951693186129</v>
+        <v>13.32967665786875</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>14.72825252303501</v>
+        <v>14.73895526693356</v>
       </c>
       <c r="C185">
-        <v>13.48572359484321</v>
+        <v>14.70812682468991</v>
       </c>
       <c r="D185">
-        <v>13.25454031230938</v>
+        <v>14.70126568855372</v>
       </c>
       <c r="E185">
-        <v>13.37799841547936</v>
+        <v>14.7214284965984</v>
       </c>
       <c r="F185">
-        <v>14.74306052319626</v>
+        <v>13.29916552563616</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>14.72116442235635</v>
+        <v>14.73273125046572</v>
       </c>
       <c r="C186">
-        <v>13.45606330028161</v>
+        <v>14.69924179291035</v>
       </c>
       <c r="D186">
-        <v>13.22295878728314</v>
+        <v>14.69250461486432</v>
       </c>
       <c r="E186">
-        <v>13.34713533216157</v>
+        <v>14.71419917887532</v>
       </c>
       <c r="F186">
-        <v>14.73660520726826</v>
+        <v>13.26869466071783</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>14.71407594101515</v>
+        <v>14.72650866963991</v>
       </c>
       <c r="C187">
-        <v>13.42642431001283</v>
+        <v>14.69035934404349</v>
       </c>
       <c r="D187">
-        <v>13.19141807241655</v>
+        <v>14.68374817282775</v>
       </c>
       <c r="E187">
-        <v>13.31631655631763</v>
+        <v>14.70696726489085</v>
       </c>
       <c r="F187">
-        <v>14.73015098428022</v>
+        <v>13.23826406758882</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>14.70698711360587</v>
+        <v>14.72028752456792</v>
       </c>
       <c r="C188">
-        <v>13.39680687475386</v>
+        <v>14.68147951097175</v>
       </c>
       <c r="D188">
-        <v>13.15991817858915</v>
+        <v>14.67499637299959</v>
       </c>
       <c r="E188">
-        <v>13.28554207627522</v>
+        <v>14.69973281933045</v>
       </c>
       <c r="F188">
-        <v>14.72369785443494</v>
+        <v>13.20787375070925</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>14.69989797419671</v>
+        <v>14.7140678153598</v>
       </c>
       <c r="C189">
-        <v>13.36721123467291</v>
+        <v>14.67260232490711</v>
       </c>
       <c r="D189">
-        <v>13.12845911594209</v>
+        <v>14.66624922571885</v>
       </c>
       <c r="E189">
-        <v>13.25481188034018</v>
+        <v>14.69249590582486</v>
       </c>
       <c r="F189">
-        <v>14.71724581793513</v>
+        <v>13.17752371453061</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>14.69280855622271</v>
+        <v>14.7078495421237</v>
       </c>
       <c r="C190">
-        <v>13.33763762421386</v>
+        <v>14.66372781547275</v>
       </c>
       <c r="D190">
-        <v>13.09704089446276</v>
+        <v>14.65750674082753</v>
       </c>
       <c r="E190">
-        <v>13.22412595630191</v>
+        <v>14.68525658691335</v>
       </c>
       <c r="F190">
-        <v>14.71079487498308</v>
+        <v>13.14721396349651</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>14.68571889243451</v>
+        <v>14.7016327049666</v>
       </c>
       <c r="C191">
-        <v>13.30808626938326</v>
+        <v>14.65485601097278</v>
       </c>
       <c r="D191">
-        <v>13.06566352390422</v>
+        <v>14.64876892761146</v>
       </c>
       <c r="E191">
-        <v>13.19348429143174</v>
+        <v>14.67801492417171</v>
       </c>
       <c r="F191">
-        <v>14.70434502578139</v>
+        <v>13.11694450198932</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>14.67862901503484</v>
+        <v>14.69541730399383</v>
       </c>
       <c r="C192">
-        <v>13.27855738976296</v>
+        <v>14.64598693817183</v>
       </c>
       <c r="D192">
-        <v>13.03432701362706</v>
+        <v>14.64003579404407</v>
       </c>
       <c r="E192">
-        <v>13.16288687268682</v>
+        <v>14.67077097828674</v>
       </c>
       <c r="F192">
-        <v>14.69789627053251</v>
+        <v>13.08671533443758</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>14.67153895574608</v>
+        <v>14.6892033393091</v>
       </c>
       <c r="C193">
-        <v>13.24905120379071</v>
+        <v>14.63712062266496</v>
       </c>
       <c r="D193">
-        <v>13.00303137234503</v>
+        <v>14.63130734849991</v>
       </c>
       <c r="E193">
-        <v>13.13233368677298</v>
+        <v>14.66352480897302</v>
       </c>
       <c r="F193">
-        <v>14.69144860943883</v>
+        <v>13.05652646525142</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>14.66444874571505</v>
+        <v>14.68299081101457</v>
       </c>
       <c r="C194">
-        <v>13.21956792291051</v>
+        <v>14.62825708874784</v>
       </c>
       <c r="D194">
-        <v>12.97177660873694</v>
+        <v>14.62258359864973</v>
       </c>
       <c r="E194">
-        <v>13.10182472003629</v>
+        <v>14.65627647491184</v>
       </c>
       <c r="F194">
-        <v>14.6850020427027</v>
+        <v>13.0263778988276</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>14.65735841547443</v>
+        <v>14.67677971921128</v>
       </c>
       <c r="C195">
-        <v>13.19010775369968</v>
+        <v>14.61939635949158</v>
       </c>
       <c r="D195">
-        <v>12.94056273118693</v>
+        <v>14.6138645516857</v>
       </c>
       <c r="E195">
-        <v>13.07135995836194</v>
+        <v>14.64902603392405</v>
       </c>
       <c r="F195">
-        <v>14.67855657052636</v>
+        <v>12.99626963955505</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>14.65026799505471</v>
+        <v>14.67057006399877</v>
       </c>
       <c r="C196">
-        <v>13.16067089430458</v>
+        <v>14.61053845694018</v>
       </c>
       <c r="D196">
-        <v>12.90938974777138</v>
+        <v>14.60515021382993</v>
       </c>
       <c r="E196">
-        <v>13.04093938752525</v>
+        <v>14.64177354298224</v>
       </c>
       <c r="F196">
-        <v>14.67211219311088</v>
+        <v>12.96620169176385</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>14.64317751404298</v>
+        <v>14.66436184547501</v>
       </c>
       <c r="C197">
-        <v>13.13125754190661</v>
+        <v>14.60168340194761</v>
       </c>
       <c r="D197">
-        <v>12.8782576660923</v>
+        <v>14.59644059157741</v>
       </c>
       <c r="E197">
-        <v>13.01056299298022</v>
+        <v>14.63451905815893</v>
       </c>
       <c r="F197">
-        <v>14.66566891065897</v>
+        <v>12.93617405980233</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>14.63608700150385</v>
+        <v>14.65815506373687</v>
       </c>
       <c r="C198">
-        <v>13.10186788859583</v>
+        <v>14.59283121445984</v>
       </c>
       <c r="D198">
-        <v>12.84716649370936</v>
+        <v>14.58773569082493</v>
       </c>
       <c r="E198">
-        <v>12.98023075987298</v>
+        <v>14.62726263455755</v>
       </c>
       <c r="F198">
-        <v>14.65922672337267</v>
+        <v>12.90618674803142</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>14.62899648594926</v>
+        <v>14.65194971887995</v>
       </c>
       <c r="C199">
-        <v>13.07250212188863</v>
+        <v>14.58398191341317</v>
       </c>
       <c r="D199">
-        <v>12.81611623788967</v>
+        <v>14.57903551703493</v>
       </c>
       <c r="E199">
-        <v>12.94994267303781</v>
+        <v>14.62000432650749</v>
       </c>
       <c r="F199">
-        <v>14.65278563145404</v>
+        <v>12.8762397607849</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>14.62190599543026</v>
+        <v>14.64574581099862</v>
       </c>
       <c r="C200">
-        <v>13.04316042441322</v>
+        <v>14.57513551679801</v>
       </c>
       <c r="D200">
-        <v>12.78510690566518</v>
+        <v>14.57034007510607</v>
       </c>
       <c r="E200">
-        <v>12.91969871720332</v>
+        <v>14.61274418752111</v>
       </c>
       <c r="F200">
-        <v>14.64634563510511</v>
+        <v>12.84633310238617</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>14.61481555758804</v>
+        <v>14.63954334018572</v>
       </c>
       <c r="C201">
-        <v>13.01384297237572</v>
+        <v>14.56629204180375</v>
       </c>
       <c r="D201">
-        <v>12.75413850371313</v>
+        <v>14.56164936992412</v>
       </c>
       <c r="E201">
-        <v>12.88949887684088</v>
+        <v>14.60548227027894</v>
       </c>
       <c r="F201">
-        <v>14.63990673452756</v>
+        <v>12.81646677712602</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>14.60772519958863</v>
+        <v>14.63334230653327</v>
       </c>
       <c r="C202">
-        <v>12.98454994184406</v>
+        <v>14.55745150469845</v>
       </c>
       <c r="D202">
-        <v>12.72321103866007</v>
+        <v>14.55296340595435</v>
       </c>
       <c r="E202">
-        <v>12.8593431360829</v>
+        <v>14.59821862656023</v>
       </c>
       <c r="F202">
-        <v>14.63346892992264</v>
+        <v>12.78664078927518</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>14.60063494809657</v>
+        <v>14.62714271013202</v>
       </c>
       <c r="C203">
-        <v>12.95528150372257</v>
+        <v>14.54861392104413</v>
       </c>
       <c r="D203">
-        <v>12.69232451688813</v>
+        <v>14.54428218728886</v>
       </c>
       <c r="E203">
-        <v>12.82923147894912</v>
+        <v>14.59095330743844</v>
       </c>
       <c r="F203">
-        <v>14.62703222149264</v>
+        <v>12.7568551431278</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>14.59354482935314</v>
+        <v>14.62094455107156</v>
       </c>
       <c r="C204">
-        <v>12.92603782535905</v>
+        <v>14.53977930583859</v>
       </c>
       <c r="D204">
-        <v>12.66147894458479</v>
+        <v>14.53560571767872</v>
       </c>
       <c r="E204">
-        <v>12.79916388928802</v>
+        <v>14.58368636320309</v>
       </c>
       <c r="F204">
-        <v>14.62059660943939</v>
+        <v>12.72710984294843</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>14.58645486922212</v>
+        <v>14.61474782944025</v>
       </c>
       <c r="C205">
-        <v>12.89681906823118</v>
+        <v>14.53094767330117</v>
       </c>
       <c r="D205">
-        <v>12.63067432763129</v>
+        <v>14.52693400075081</v>
       </c>
       <c r="E205">
-        <v>12.76914035073725</v>
+        <v>14.5764178433748</v>
       </c>
       <c r="F205">
-        <v>14.61416209396471</v>
+        <v>12.69740489298847</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>14.57936509313302</v>
+        <v>14.6085525453256</v>
       </c>
       <c r="C206">
-        <v>12.86762539128662</v>
+        <v>14.52211903661873</v>
       </c>
       <c r="D206">
-        <v>12.59991067189858</v>
+        <v>14.51826703983158</v>
       </c>
       <c r="E206">
-        <v>12.73916084665212</v>
+        <v>14.56914779663183</v>
       </c>
       <c r="F206">
-        <v>14.60772867527046</v>
+        <v>12.6677402974824</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>14.57227552605762</v>
+        <v>14.60235869881398</v>
       </c>
       <c r="C207">
-        <v>12.8384569515886</v>
+        <v>14.51329340826509</v>
       </c>
       <c r="D207">
-        <v>12.56918798304775</v>
+        <v>14.50960483789343</v>
       </c>
       <c r="E207">
-        <v>12.70922536035541</v>
+        <v>14.56187627100869</v>
       </c>
       <c r="F207">
-        <v>14.60129635355818</v>
+        <v>12.63811606064108</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>14.5651861925782</v>
+        <v>14.59616628999055</v>
       </c>
       <c r="C208">
-        <v>12.80931390216356</v>
+        <v>14.5044708005063</v>
       </c>
       <c r="D208">
-        <v>12.53850626656619</v>
+        <v>14.50094739770275</v>
       </c>
       <c r="E208">
-        <v>12.67933387497286</v>
+        <v>14.55460331379106</v>
       </c>
       <c r="F208">
-        <v>14.59486512902958</v>
+        <v>12.60853218667773</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>14.55809711692933</v>
+        <v>14.58997531893957</v>
       </c>
       <c r="C209">
-        <v>12.78019639291535</v>
+        <v>14.49565122608228</v>
       </c>
       <c r="D209">
-        <v>12.50786552768395</v>
+        <v>14.49229472189587</v>
       </c>
       <c r="E209">
-        <v>12.64948637340284</v>
+        <v>14.54732897155015</v>
       </c>
       <c r="F209">
-        <v>14.58843500188657</v>
+        <v>12.57898867978437</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>14.55100832294694</v>
+        <v>14.58378578574446</v>
       </c>
       <c r="C210">
-        <v>12.75110456730845</v>
+        <v>14.48683469486789</v>
       </c>
       <c r="D210">
-        <v>12.47726577164134</v>
+        <v>14.48364681287172</v>
       </c>
       <c r="E210">
-        <v>12.61968283839912</v>
+        <v>14.54005329006922</v>
       </c>
       <c r="F210">
-        <v>14.58200597233096</v>
+        <v>12.54948554413822</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>14.54391983404867</v>
+        <v>14.57759769048767</v>
       </c>
       <c r="C211">
-        <v>12.72203857003632</v>
+        <v>14.47802121683469</v>
       </c>
       <c r="D211">
-        <v>12.44670700349665</v>
+        <v>14.47500367266401</v>
       </c>
       <c r="E211">
-        <v>12.58992325268333</v>
+        <v>14.53277631453907</v>
       </c>
       <c r="F211">
-        <v>14.57557804056456</v>
+        <v>12.52002278390137</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>14.53683167329265</v>
+        <v>14.57141103325077</v>
       </c>
       <c r="C212">
-        <v>12.69299854145583</v>
+        <v>14.46921080140349</v>
       </c>
       <c r="D212">
-        <v>12.41618922815406</v>
+        <v>14.4663653032406</v>
       </c>
       <c r="E212">
-        <v>12.56020759882263</v>
+        <v>14.5254980894411</v>
       </c>
       <c r="F212">
-        <v>14.56915120678922</v>
+        <v>12.49060040321852</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>14.52974386341529</v>
+        <v>14.56522581411444</v>
       </c>
       <c r="C213">
-        <v>12.66398461917809</v>
+        <v>14.4604034607802</v>
       </c>
       <c r="D213">
-        <v>12.38571245032921</v>
+        <v>14.45773170640839</v>
       </c>
       <c r="E213">
-        <v>12.53053585928325</v>
+        <v>14.51821865858656</v>
       </c>
       <c r="F213">
-        <v>14.56272547120674</v>
+        <v>12.46121840622165</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>14.52265642678634</v>
+        <v>14.55904203315727</v>
       </c>
       <c r="C214">
-        <v>12.63499693732355</v>
+        <v>14.45159920214616</v>
       </c>
       <c r="D214">
-        <v>12.35527667472607</v>
+        <v>14.44910288378581</v>
       </c>
       <c r="E214">
-        <v>12.5009080164426</v>
+        <v>14.51093806505847</v>
       </c>
       <c r="F214">
-        <v>14.55630083401903</v>
+        <v>12.43187679702592</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>14.51556938539307</v>
+        <v>14.55285969045868</v>
       </c>
       <c r="C215">
-        <v>12.60603562659511</v>
+        <v>14.44279803364942</v>
       </c>
       <c r="D215">
-        <v>12.32488190590261</v>
+        <v>14.44047883664613</v>
       </c>
       <c r="E215">
-        <v>12.47132405234254</v>
+        <v>14.50365635137871</v>
       </c>
       <c r="F215">
-        <v>14.54987729542806</v>
+        <v>12.40257557973053</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>14.50848276089019</v>
+        <v>14.54667878609667</v>
       </c>
       <c r="C216">
-        <v>12.57710081697683</v>
+        <v>14.43399996284945</v>
       </c>
       <c r="D216">
-        <v>12.29452814828616</v>
+        <v>14.43185956629707</v>
       </c>
       <c r="E216">
-        <v>12.44178394914387</v>
+        <v>14.49637355940621</v>
       </c>
       <c r="F216">
-        <v>14.54345485563579</v>
+        <v>12.37331475841846</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>14.50139657463338</v>
+        <v>14.54049932014848</v>
       </c>
       <c r="C217">
-        <v>12.5481926352267</v>
+        <v>14.4252049984044</v>
       </c>
       <c r="D217">
-        <v>12.26421540617476</v>
+        <v>14.42324507384061</v>
       </c>
       <c r="E217">
-        <v>12.41228768885026</v>
+        <v>14.48908973036792</v>
       </c>
       <c r="F217">
-        <v>14.53703351484425</v>
+        <v>12.34409433714968</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>14.49431084764066</v>
+        <v>14.5343212926906</v>
       </c>
       <c r="C218">
-        <v>12.51931120574151</v>
+        <v>14.41641314770927</v>
       </c>
       <c r="D218">
-        <v>12.23394368383065</v>
+        <v>14.41463536021453</v>
       </c>
       <c r="E218">
-        <v>12.38283525334317</v>
+        <v>14.48180490482009</v>
       </c>
       <c r="F218">
-        <v>14.53061327325552</v>
+        <v>12.31491431997386</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>14.48722560057945</v>
+        <v>14.52814470379823</v>
       </c>
       <c r="C219">
-        <v>12.49045664922907</v>
+        <v>14.40762441760001</v>
       </c>
       <c r="D219">
-        <v>12.20371298540529</v>
+        <v>14.40603042604184</v>
       </c>
       <c r="E219">
-        <v>12.35342662440271</v>
+        <v>14.47451912278308</v>
       </c>
       <c r="F219">
-        <v>14.52419413107158</v>
+        <v>12.28577471092239</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>14.48014085380896</v>
+        <v>14.5219695535451</v>
       </c>
       <c r="C220">
-        <v>12.46162908525362</v>
+        <v>14.39883881512928</v>
       </c>
       <c r="D220">
-        <v>12.17352331491057</v>
+        <v>14.39743027206155</v>
       </c>
       <c r="E220">
-        <v>12.32406178373901</v>
+        <v>14.46723242365835</v>
       </c>
       <c r="F220">
-        <v>14.51777608849468</v>
+        <v>12.25667551400842</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>14.47305662741008</v>
+        <v>14.5157958420059</v>
       </c>
       <c r="C221">
-        <v>12.43282863126992</v>
+        <v>14.39005634672279</v>
       </c>
       <c r="D221">
-        <v>12.14337467627268</v>
+        <v>14.38883489881461</v>
       </c>
       <c r="E221">
-        <v>12.29474071297315</v>
+        <v>14.45994484623949</v>
       </c>
       <c r="F221">
-        <v>14.51135914572706</v>
+        <v>12.22761673322728</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>14.46597294115211</v>
+        <v>14.50962356925388</v>
       </c>
       <c r="C222">
-        <v>12.40405540239558</v>
+        <v>14.38127701856124</v>
       </c>
       <c r="D222">
-        <v>12.1132670734168</v>
+        <v>14.38024430673879</v>
       </c>
       <c r="E222">
-        <v>12.26546339368593</v>
+        <v>14.45265642867381</v>
       </c>
       <c r="F222">
-        <v>14.50494330297101</v>
+        <v>12.19859837254897</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>14.45888981448167</v>
+        <v>14.50345273536162</v>
       </c>
       <c r="C223">
-        <v>12.37530951150486</v>
+        <v>14.37250083648568</v>
       </c>
       <c r="D223">
-        <v>12.08320051017134</v>
+        <v>14.37165849617965</v>
       </c>
       <c r="E223">
-        <v>12.23622980734781</v>
+        <v>14.44536720865527</v>
       </c>
       <c r="F223">
-        <v>14.49852856042893</v>
+        <v>12.16962043592829</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>14.45180726655932</v>
+        <v>14.49728334040101</v>
       </c>
       <c r="C224">
-        <v>12.34659106825499</v>
+        <v>14.36372780603865</v>
       </c>
       <c r="D224">
-        <v>12.05317499030695</v>
+        <v>14.36307746721891</v>
       </c>
       <c r="E224">
-        <v>12.20703993537869</v>
+        <v>14.43807722328325</v>
       </c>
       <c r="F224">
-        <v>14.49211491830314</v>
+        <v>12.14068292730466</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>14.44472531628653</v>
+        <v>14.49111538444229</v>
       </c>
       <c r="C225">
-        <v>12.31790018204877</v>
+        <v>14.35495793247926</v>
       </c>
       <c r="D225">
-        <v>12.02319051754351</v>
+        <v>14.35450121960386</v>
       </c>
       <c r="E225">
-        <v>12.17789375913592</v>
+        <v>14.43078650911511</v>
       </c>
       <c r="F225">
-        <v>14.48570237679598</v>
+        <v>12.1117858505954</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>14.43764398227642</v>
+        <v>14.4849488675557</v>
       </c>
       <c r="C226">
-        <v>12.28923695978414</v>
+        <v>14.34619122091983</v>
       </c>
       <c r="D226">
-        <v>11.99324709537286</v>
+        <v>14.34592975355714</v>
       </c>
       <c r="E226">
-        <v>12.14879125992566</v>
+        <v>14.42349510217771</v>
       </c>
       <c r="F226">
-        <v>14.47929093611011</v>
+        <v>12.08292920969795</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>14.43056328282085</v>
+        <v>14.47878378981121</v>
       </c>
       <c r="C227">
-        <v>12.26060150655173</v>
+        <v>14.3374276759891</v>
       </c>
       <c r="D227">
-        <v>11.96334472721742</v>
+        <v>14.33736306899094</v>
       </c>
       <c r="E227">
-        <v>12.11973241900709</v>
+        <v>14.4162030378839</v>
       </c>
       <c r="F227">
-        <v>14.47288059644815</v>
+        <v>12.05411300848632</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>14.42348323595797</v>
+        <v>14.47262015127781</v>
       </c>
       <c r="C228">
-        <v>12.23199392494869</v>
+        <v>14.32866730222301</v>
       </c>
       <c r="D228">
-        <v>11.9334834167255</v>
+        <v>14.32880116575265</v>
       </c>
       <c r="E228">
-        <v>12.09071721757767</v>
+        <v>14.40891035097102</v>
       </c>
       <c r="F228">
-        <v>14.4664713580128</v>
+        <v>12.02533725081211</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>14.41640385950538</v>
+        <v>14.46645795202387</v>
       </c>
       <c r="C229">
-        <v>12.20341431584682</v>
+        <v>14.31991010408134</v>
       </c>
       <c r="D229">
-        <v>11.90366316737389</v>
+        <v>14.32024404363427</v>
       </c>
       <c r="E229">
-        <v>12.06174563676244</v>
+        <v>14.40161707600396</v>
       </c>
       <c r="F229">
-        <v>14.46006322100685</v>
+        <v>11.99660194051158</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>14.40932517100669</v>
+        <v>14.46029719211713</v>
       </c>
       <c r="C230">
-        <v>12.17486277918818</v>
+        <v>14.31115608548994</v>
       </c>
       <c r="D230">
-        <v>11.87388398260727</v>
+        <v>14.31169170192444</v>
       </c>
       <c r="E230">
-        <v>12.03281765768729</v>
+        <v>14.39432324690857</v>
       </c>
       <c r="F230">
-        <v>14.45365618563301</v>
+        <v>11.96790708139671</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>14.40224718775884</v>
+        <v>14.4541378716239</v>
       </c>
       <c r="C231">
-        <v>12.14633941291311</v>
+        <v>14.30240525042252</v>
       </c>
       <c r="D231">
-        <v>11.84414586584442</v>
+        <v>14.30314413991906</v>
       </c>
       <c r="E231">
-        <v>12.00393326142568</v>
+        <v>14.3870288971232</v>
       </c>
       <c r="F231">
-        <v>14.44725025209416</v>
+        <v>11.93925267725752</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>14.39516992681877</v>
+        <v>14.447979990611</v>
       </c>
       <c r="C232">
-        <v>12.117844313397</v>
+        <v>14.2936576026896</v>
       </c>
       <c r="D232">
-        <v>11.81444882022918</v>
+        <v>14.29460135734559</v>
       </c>
       <c r="E232">
-        <v>11.97509242896402</v>
+        <v>14.37973405960938</v>
       </c>
       <c r="F232">
-        <v>14.44084542059335</v>
+        <v>11.9106387318611</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>14.38809340485373</v>
+        <v>14.44182354914421</v>
       </c>
       <c r="C233">
-        <v>12.08937757425212</v>
+        <v>14.28491314570115</v>
       </c>
       <c r="D233">
-        <v>11.78479284878209</v>
+        <v>14.28606335360865</v>
       </c>
       <c r="E233">
-        <v>11.94629514130192</v>
+        <v>14.37243876668933</v>
       </c>
       <c r="F233">
-        <v>14.43444169133366</v>
+        <v>11.88206524894986</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>14.38101763836217</v>
+        <v>14.43566854728877</v>
       </c>
       <c r="C234">
-        <v>12.06093928893421</v>
+        <v>14.27617188293577</v>
       </c>
       <c r="D234">
-        <v>11.75517795496362</v>
+        <v>14.27753012806156</v>
       </c>
       <c r="E234">
-        <v>11.91754137938952</v>
+        <v>14.36514305003602</v>
       </c>
       <c r="F234">
-        <v>14.42803906451826</v>
+        <v>11.85353223224616</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>14.37394264372786</v>
+        <v>14.42951498510934</v>
       </c>
       <c r="C235">
-        <v>12.03252954904508</v>
+        <v>14.26743381761989</v>
       </c>
       <c r="D235">
-        <v>11.72560414198506</v>
+        <v>14.26900168001283</v>
       </c>
       <c r="E235">
-        <v>11.88883112413768</v>
+        <v>14.35784694133173</v>
       </c>
       <c r="F235">
-        <v>14.4216375403504</v>
+        <v>11.82503968544753</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>14.36686843704</v>
+        <v>14.42336286266991</v>
       </c>
       <c r="C236">
-        <v>12.00414844472489</v>
+        <v>14.25869895273243</v>
       </c>
       <c r="D236">
-        <v>11.69607141303593</v>
+        <v>14.26047800819905</v>
       </c>
       <c r="E236">
-        <v>11.86016435642673</v>
+        <v>14.35055047159487</v>
       </c>
       <c r="F236">
-        <v>14.41523711903331</v>
+        <v>11.7965876122276</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>14.35979503417012</v>
+        <v>14.41721218003379</v>
       </c>
       <c r="C237">
-        <v>11.97579606448285</v>
+        <v>14.24996729130526</v>
       </c>
       <c r="D237">
-        <v>11.66657977128835</v>
+        <v>14.25195911174998</v>
       </c>
       <c r="E237">
-        <v>11.83154105711571</v>
+        <v>14.34325367139708</v>
       </c>
       <c r="F237">
-        <v>14.40883780077044</v>
+        <v>11.7681760162356</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>14.35272245077815</v>
+        <v>14.41106293726409</v>
       </c>
       <c r="C238">
-        <v>11.94747249498322</v>
+        <v>14.24123883606738</v>
       </c>
       <c r="D238">
-        <v>11.63712921971641</v>
+        <v>14.24344498982451</v>
       </c>
       <c r="E238">
-        <v>11.80296120703565</v>
+        <v>14.33595657087226</v>
       </c>
       <c r="F238">
-        <v>14.40243958576531</v>
+        <v>11.73980490109464</v>
       </c>
     </row>
   </sheetData>
